--- a/Documentacion_G9/PREGAME/1.ELICITACIÓN/1.6 Backlog/G9_Backlog-3Sprint2.xlsx
+++ b/Documentacion_G9/PREGAME/1.ELICITACIÓN/1.6 Backlog/G9_Backlog-3Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MET. DES. SOFT 3594\III PARCIAL\PROYECTO\DOC ENTREGADOS\27082021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\OneDrive\Documentos\G9_3594_MET_DES_SW_202150\Documentacion_G9\PREGAME\1.ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5673C9C-DA6D-48CC-93C6-D2556F0069E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AEE8A8-3A12-4991-80B3-842FB5CD0A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="675" windowWidth="25920" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Config!$A$15:$D$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1388,6 +1399,35 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1437,29 +1477,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1469,6 +1492,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1476,6 +1525,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,21 +1569,6 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,50 +1584,35 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,44 +1629,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{26AC404A-B63E-4660-9AB4-8C097FB2229F}"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1653,30 +1664,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4022,10 +4009,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4241,10 +4228,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5422,19 +5409,19 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="A2" s="42"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
       <c r="O2" s="42"/>
@@ -5452,17 +5439,17 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
       <c r="O3" s="42"/>
@@ -5564,19 +5551,19 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="42"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
@@ -5594,17 +5581,17 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="A8" s="42"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
@@ -5622,17 +5609,17 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="42"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
@@ -5650,17 +5637,17 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="42"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
@@ -5678,17 +5665,17 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="42"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -5706,17 +5693,17 @@
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1">
       <c r="A12" s="42"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -5734,17 +5721,17 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="42"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -5762,17 +5749,17 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="42"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -5846,12 +5833,12 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1">
       <c r="A17" s="46"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
@@ -5904,10 +5891,10 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
       <c r="A19" s="46"/>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="107"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -5935,18 +5922,18 @@
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="46"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -5965,16 +5952,16 @@
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
       <c r="A21" s="46"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
@@ -5993,16 +5980,16 @@
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
       <c r="A22" s="46"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
@@ -6076,10 +6063,10 @@
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="46"/>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="107"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
@@ -6107,18 +6094,18 @@
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="45"/>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
       <c r="M26" s="43"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
@@ -6137,19 +6124,19 @@
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
       <c r="A27" s="46"/>
       <c r="B27" s="45"/>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -6167,17 +6154,17 @@
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="45"/>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
       <c r="L28" s="44"/>
       <c r="M28" s="43"/>
       <c r="N28" s="42"/>
@@ -33450,20 +33437,20 @@
     <row r="3" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="136"/>
     </row>
     <row r="6" spans="1:4" ht="27" customHeight="1">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="139"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
@@ -33536,14 +33523,14 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127" t="s">
+      <c r="B15" s="141"/>
+      <c r="C15" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="144" t="s">
         <v>7</v>
       </c>
     </row>
@@ -33554,8 +33541,8 @@
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="145"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -34661,11 +34648,11 @@
   </sheetPr>
   <dimension ref="A1:CM1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AL41" sqref="AL41"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -35094,52 +35081,52 @@
       <c r="BA8" s="25"/>
       <c r="BB8" s="25"/>
       <c r="BC8" s="25"/>
-      <c r="BE8" s="195"/>
-      <c r="BF8" s="195"/>
-      <c r="BG8" s="195"/>
-      <c r="BH8" s="195"/>
-      <c r="BI8" s="195"/>
-      <c r="BJ8" s="195"/>
-      <c r="BK8" s="195"/>
-      <c r="BL8" s="195"/>
-      <c r="BM8" s="195"/>
-      <c r="BN8" s="195"/>
-      <c r="BO8" s="195"/>
-      <c r="BP8" s="195"/>
-      <c r="BQ8" s="195"/>
-      <c r="BR8" s="195"/>
-      <c r="BS8" s="195"/>
-      <c r="BT8" s="195"/>
-      <c r="BU8" s="195"/>
-      <c r="BV8" s="195"/>
-      <c r="BW8" s="195"/>
-      <c r="BX8" s="195"/>
-      <c r="BY8" s="195"/>
-      <c r="BZ8" s="195"/>
-      <c r="CA8" s="195"/>
-      <c r="CB8" s="195"/>
-      <c r="CC8" s="195"/>
-      <c r="CD8" s="195"/>
-      <c r="CE8" s="195"/>
-      <c r="CF8" s="195"/>
-      <c r="CG8" s="195"/>
-      <c r="CH8" s="195"/>
-      <c r="CI8" s="195"/>
-      <c r="CJ8" s="195"/>
-      <c r="CK8" s="195"/>
-      <c r="CL8" s="195"/>
-      <c r="CM8" s="195"/>
+      <c r="BE8" s="109"/>
+      <c r="BF8" s="109"/>
+      <c r="BG8" s="109"/>
+      <c r="BH8" s="109"/>
+      <c r="BI8" s="109"/>
+      <c r="BJ8" s="109"/>
+      <c r="BK8" s="109"/>
+      <c r="BL8" s="109"/>
+      <c r="BM8" s="109"/>
+      <c r="BN8" s="109"/>
+      <c r="BO8" s="109"/>
+      <c r="BP8" s="109"/>
+      <c r="BQ8" s="109"/>
+      <c r="BR8" s="109"/>
+      <c r="BS8" s="109"/>
+      <c r="BT8" s="109"/>
+      <c r="BU8" s="109"/>
+      <c r="BV8" s="109"/>
+      <c r="BW8" s="109"/>
+      <c r="BX8" s="109"/>
+      <c r="BY8" s="109"/>
+      <c r="BZ8" s="109"/>
+      <c r="CA8" s="109"/>
+      <c r="CB8" s="109"/>
+      <c r="CC8" s="109"/>
+      <c r="CD8" s="109"/>
+      <c r="CE8" s="109"/>
+      <c r="CF8" s="109"/>
+      <c r="CG8" s="109"/>
+      <c r="CH8" s="109"/>
+      <c r="CI8" s="109"/>
+      <c r="CJ8" s="109"/>
+      <c r="CK8" s="109"/>
+      <c r="CL8" s="109"/>
+      <c r="CM8" s="109"/>
     </row>
     <row r="9" spans="1:91" ht="12.75" customHeight="1">
       <c r="A9" s="74"/>
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
       <c r="H9" s="80">
         <f>COUNTIF(H13:H1000,"&gt;0")</f>
         <v>6</v>
@@ -35332,52 +35319,52 @@
         <f>Config!C17</f>
         <v>Luis,Magaly,Erika, Daniel</v>
       </c>
-      <c r="BE9" s="195"/>
-      <c r="BF9" s="195"/>
-      <c r="BG9" s="195"/>
-      <c r="BH9" s="195"/>
-      <c r="BI9" s="195"/>
-      <c r="BJ9" s="195"/>
-      <c r="BK9" s="195"/>
-      <c r="BL9" s="195"/>
-      <c r="BM9" s="195"/>
-      <c r="BN9" s="195"/>
-      <c r="BO9" s="195"/>
-      <c r="BP9" s="195"/>
-      <c r="BQ9" s="195"/>
-      <c r="BR9" s="195"/>
-      <c r="BS9" s="195"/>
-      <c r="BT9" s="195"/>
-      <c r="BU9" s="195"/>
-      <c r="BV9" s="195"/>
-      <c r="BW9" s="195"/>
-      <c r="BX9" s="195"/>
-      <c r="BY9" s="195"/>
-      <c r="BZ9" s="195"/>
-      <c r="CA9" s="195"/>
-      <c r="CB9" s="195"/>
-      <c r="CC9" s="195"/>
-      <c r="CD9" s="195"/>
-      <c r="CE9" s="195"/>
-      <c r="CF9" s="195"/>
-      <c r="CG9" s="195"/>
-      <c r="CH9" s="195"/>
-      <c r="CI9" s="195"/>
-      <c r="CJ9" s="195"/>
-      <c r="CK9" s="195"/>
-      <c r="CL9" s="195"/>
-      <c r="CM9" s="195"/>
+      <c r="BE9" s="109"/>
+      <c r="BF9" s="109"/>
+      <c r="BG9" s="109"/>
+      <c r="BH9" s="109"/>
+      <c r="BI9" s="109"/>
+      <c r="BJ9" s="109"/>
+      <c r="BK9" s="109"/>
+      <c r="BL9" s="109"/>
+      <c r="BM9" s="109"/>
+      <c r="BN9" s="109"/>
+      <c r="BO9" s="109"/>
+      <c r="BP9" s="109"/>
+      <c r="BQ9" s="109"/>
+      <c r="BR9" s="109"/>
+      <c r="BS9" s="109"/>
+      <c r="BT9" s="109"/>
+      <c r="BU9" s="109"/>
+      <c r="BV9" s="109"/>
+      <c r="BW9" s="109"/>
+      <c r="BX9" s="109"/>
+      <c r="BY9" s="109"/>
+      <c r="BZ9" s="109"/>
+      <c r="CA9" s="109"/>
+      <c r="CB9" s="109"/>
+      <c r="CC9" s="109"/>
+      <c r="CD9" s="109"/>
+      <c r="CE9" s="109"/>
+      <c r="CF9" s="109"/>
+      <c r="CG9" s="109"/>
+      <c r="CH9" s="109"/>
+      <c r="CI9" s="109"/>
+      <c r="CJ9" s="109"/>
+      <c r="CK9" s="109"/>
+      <c r="CL9" s="109"/>
+      <c r="CM9" s="109"/>
     </row>
     <row r="10" spans="1:91" ht="15" customHeight="1">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
       <c r="D10" s="79"/>
-      <c r="E10" s="170" t="s">
+      <c r="E10" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="168"/>
-      <c r="G10" s="171"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="159"/>
       <c r="H10" s="81">
         <f>SUM(H13:H100)</f>
         <v>7</v>
@@ -35570,93 +35557,93 @@
         <f>Config!C18</f>
         <v>Daniel</v>
       </c>
-      <c r="BD10" s="195"/>
-      <c r="BE10" s="195"/>
-      <c r="BF10" s="195"/>
-      <c r="BG10" s="195"/>
-      <c r="BH10" s="195"/>
-      <c r="BI10" s="195"/>
-      <c r="BJ10" s="195"/>
-      <c r="BK10" s="195"/>
-      <c r="BL10" s="195"/>
-      <c r="BM10" s="195"/>
-      <c r="BN10" s="195"/>
-      <c r="BO10" s="195"/>
-      <c r="BP10" s="195"/>
-      <c r="BQ10" s="195"/>
-      <c r="BR10" s="195"/>
-      <c r="BS10" s="195"/>
-      <c r="BT10" s="195"/>
-      <c r="BU10" s="195"/>
-      <c r="BV10" s="195"/>
-      <c r="BW10" s="195"/>
-      <c r="BX10" s="195"/>
-      <c r="BY10" s="195"/>
-      <c r="BZ10" s="195"/>
-      <c r="CA10" s="195"/>
-      <c r="CB10" s="195"/>
-      <c r="CC10" s="195"/>
-      <c r="CD10" s="195"/>
-      <c r="CE10" s="195"/>
-      <c r="CF10" s="195"/>
-      <c r="CG10" s="195"/>
-      <c r="CH10" s="195"/>
-      <c r="CI10" s="195"/>
-      <c r="CJ10" s="195"/>
-      <c r="CK10" s="195"/>
-      <c r="CL10" s="195"/>
-      <c r="CM10" s="195"/>
+      <c r="BD10" s="109"/>
+      <c r="BE10" s="109"/>
+      <c r="BF10" s="109"/>
+      <c r="BG10" s="109"/>
+      <c r="BH10" s="109"/>
+      <c r="BI10" s="109"/>
+      <c r="BJ10" s="109"/>
+      <c r="BK10" s="109"/>
+      <c r="BL10" s="109"/>
+      <c r="BM10" s="109"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="109"/>
+      <c r="BR10" s="109"/>
+      <c r="BS10" s="109"/>
+      <c r="BT10" s="109"/>
+      <c r="BU10" s="109"/>
+      <c r="BV10" s="109"/>
+      <c r="BW10" s="109"/>
+      <c r="BX10" s="109"/>
+      <c r="BY10" s="109"/>
+      <c r="BZ10" s="109"/>
+      <c r="CA10" s="109"/>
+      <c r="CB10" s="109"/>
+      <c r="CC10" s="109"/>
+      <c r="CD10" s="109"/>
+      <c r="CE10" s="109"/>
+      <c r="CF10" s="109"/>
+      <c r="CG10" s="109"/>
+      <c r="CH10" s="109"/>
+      <c r="CI10" s="109"/>
+      <c r="CJ10" s="109"/>
+      <c r="CK10" s="109"/>
+      <c r="CL10" s="109"/>
+      <c r="CM10" s="109"/>
     </row>
     <row r="11" spans="1:91" s="91" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="131" t="s">
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="132"/>
-      <c r="AL11" s="132"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="132"/>
-      <c r="AO11" s="132"/>
-      <c r="AP11" s="132"/>
-      <c r="AQ11" s="132"/>
-      <c r="AR11" s="132"/>
-      <c r="AS11" s="132"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="164"/>
+      <c r="AH11" s="164"/>
+      <c r="AI11" s="164"/>
+      <c r="AJ11" s="164"/>
+      <c r="AK11" s="164"/>
+      <c r="AL11" s="164"/>
+      <c r="AM11" s="164"/>
+      <c r="AN11" s="164"/>
+      <c r="AO11" s="164"/>
+      <c r="AP11" s="164"/>
+      <c r="AQ11" s="164"/>
+      <c r="AR11" s="164"/>
+      <c r="AS11" s="164"/>
       <c r="AT11" s="96"/>
       <c r="AU11" s="96"/>
       <c r="AV11" s="96"/>
@@ -35667,52 +35654,52 @@
       <c r="BA11" s="96"/>
       <c r="BB11" s="96"/>
       <c r="BC11" s="96"/>
-      <c r="BD11" s="196"/>
-      <c r="BE11" s="199"/>
-      <c r="BF11" s="200"/>
-      <c r="BG11" s="200"/>
-      <c r="BH11" s="200"/>
-      <c r="BI11" s="200"/>
-      <c r="BJ11" s="200"/>
-      <c r="BK11" s="200"/>
-      <c r="BL11" s="200"/>
-      <c r="BM11" s="200"/>
-      <c r="BN11" s="200"/>
-      <c r="BO11" s="200"/>
-      <c r="BP11" s="200"/>
-      <c r="BQ11" s="200"/>
-      <c r="BR11" s="200"/>
-      <c r="BS11" s="200"/>
-      <c r="BT11" s="200"/>
-      <c r="BU11" s="200"/>
-      <c r="BV11" s="200"/>
-      <c r="BW11" s="200"/>
-      <c r="BX11" s="200"/>
-      <c r="BY11" s="200"/>
-      <c r="BZ11" s="200"/>
-      <c r="CA11" s="200"/>
-      <c r="CB11" s="200"/>
-      <c r="CC11" s="200"/>
-      <c r="CD11" s="200"/>
-      <c r="CE11" s="200"/>
-      <c r="CF11" s="206"/>
-      <c r="CG11" s="206"/>
-      <c r="CH11" s="206"/>
-      <c r="CI11" s="206"/>
-      <c r="CJ11" s="206"/>
-      <c r="CK11" s="206"/>
-      <c r="CL11" s="206"/>
-      <c r="CM11" s="206"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="113"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
+      <c r="BJ11" s="114"/>
+      <c r="BK11" s="114"/>
+      <c r="BL11" s="114"/>
+      <c r="BM11" s="114"/>
+      <c r="BN11" s="114"/>
+      <c r="BO11" s="114"/>
+      <c r="BP11" s="114"/>
+      <c r="BQ11" s="114"/>
+      <c r="BR11" s="114"/>
+      <c r="BS11" s="114"/>
+      <c r="BT11" s="114"/>
+      <c r="BU11" s="114"/>
+      <c r="BV11" s="114"/>
+      <c r="BW11" s="114"/>
+      <c r="BX11" s="114"/>
+      <c r="BY11" s="114"/>
+      <c r="BZ11" s="114"/>
+      <c r="CA11" s="114"/>
+      <c r="CB11" s="114"/>
+      <c r="CC11" s="114"/>
+      <c r="CD11" s="114"/>
+      <c r="CE11" s="114"/>
+      <c r="CF11" s="119"/>
+      <c r="CG11" s="119"/>
+      <c r="CH11" s="119"/>
+      <c r="CI11" s="119"/>
+      <c r="CJ11" s="119"/>
+      <c r="CK11" s="119"/>
+      <c r="CL11" s="119"/>
+      <c r="CM11" s="119"/>
     </row>
     <row r="12" spans="1:91" s="90" customFormat="1" ht="15.75">
       <c r="A12" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
       <c r="E12" s="89" t="s">
         <v>25</v>
       </c>
@@ -35722,100 +35709,100 @@
       <c r="G12" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="134"/>
-      <c r="AJ12" s="134"/>
-      <c r="AK12" s="134"/>
-      <c r="AL12" s="134"/>
-      <c r="AM12" s="134"/>
-      <c r="AN12" s="134"/>
-      <c r="AO12" s="134"/>
-      <c r="AP12" s="134"/>
-      <c r="AQ12" s="134"/>
-      <c r="AR12" s="134"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="192"/>
-      <c r="AU12" s="192"/>
-      <c r="AV12" s="192"/>
-      <c r="AW12" s="192"/>
-      <c r="AX12" s="192"/>
-      <c r="AY12" s="192"/>
-      <c r="AZ12" s="192"/>
-      <c r="BA12" s="192"/>
-      <c r="BB12" s="192"/>
-      <c r="BC12" s="192"/>
-      <c r="BD12" s="197"/>
-      <c r="BE12" s="197"/>
-      <c r="BF12" s="201"/>
-      <c r="BG12" s="201"/>
-      <c r="BH12" s="201"/>
-      <c r="BI12" s="201"/>
-      <c r="BJ12" s="201"/>
-      <c r="BK12" s="201"/>
-      <c r="BL12" s="201"/>
-      <c r="BM12" s="201"/>
-      <c r="BN12" s="201"/>
-      <c r="BO12" s="201"/>
-      <c r="BP12" s="201"/>
-      <c r="BQ12" s="201"/>
-      <c r="BR12" s="201"/>
-      <c r="BS12" s="201"/>
-      <c r="BT12" s="201"/>
-      <c r="BU12" s="201"/>
-      <c r="BV12" s="201"/>
-      <c r="BW12" s="201"/>
-      <c r="BX12" s="201"/>
-      <c r="BY12" s="201"/>
-      <c r="BZ12" s="201"/>
-      <c r="CA12" s="201"/>
-      <c r="CB12" s="201"/>
-      <c r="CC12" s="201"/>
-      <c r="CD12" s="201"/>
-      <c r="CE12" s="201"/>
-      <c r="CF12" s="207"/>
-      <c r="CG12" s="207"/>
-      <c r="CH12" s="207"/>
-      <c r="CI12" s="207"/>
-      <c r="CJ12" s="207"/>
-      <c r="CK12" s="207"/>
-      <c r="CL12" s="207"/>
-      <c r="CM12" s="207"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="166"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="166"/>
+      <c r="W12" s="166"/>
+      <c r="X12" s="166"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="166"/>
+      <c r="AA12" s="166"/>
+      <c r="AB12" s="166"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="166"/>
+      <c r="AE12" s="166"/>
+      <c r="AF12" s="166"/>
+      <c r="AG12" s="166"/>
+      <c r="AH12" s="166"/>
+      <c r="AI12" s="166"/>
+      <c r="AJ12" s="166"/>
+      <c r="AK12" s="166"/>
+      <c r="AL12" s="166"/>
+      <c r="AM12" s="166"/>
+      <c r="AN12" s="166"/>
+      <c r="AO12" s="166"/>
+      <c r="AP12" s="166"/>
+      <c r="AQ12" s="166"/>
+      <c r="AR12" s="166"/>
+      <c r="AS12" s="166"/>
+      <c r="AT12" s="106"/>
+      <c r="AU12" s="106"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="106"/>
+      <c r="AY12" s="106"/>
+      <c r="AZ12" s="106"/>
+      <c r="BA12" s="106"/>
+      <c r="BB12" s="106"/>
+      <c r="BC12" s="106"/>
+      <c r="BD12" s="111"/>
+      <c r="BE12" s="111"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="115"/>
+      <c r="BO12" s="115"/>
+      <c r="BP12" s="115"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="115"/>
+      <c r="BS12" s="115"/>
+      <c r="BT12" s="115"/>
+      <c r="BU12" s="115"/>
+      <c r="BV12" s="115"/>
+      <c r="BW12" s="115"/>
+      <c r="BX12" s="115"/>
+      <c r="BY12" s="115"/>
+      <c r="BZ12" s="115"/>
+      <c r="CA12" s="115"/>
+      <c r="CB12" s="115"/>
+      <c r="CC12" s="115"/>
+      <c r="CD12" s="115"/>
+      <c r="CE12" s="115"/>
+      <c r="CF12" s="120"/>
+      <c r="CG12" s="120"/>
+      <c r="CH12" s="120"/>
+      <c r="CI12" s="120"/>
+      <c r="CJ12" s="120"/>
+      <c r="CK12" s="120"/>
+      <c r="CL12" s="120"/>
+      <c r="CM12" s="120"/>
     </row>
     <row r="13" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
       <c r="E13" s="60" t="s">
         <v>10</v>
       </c>
@@ -35884,50 +35871,50 @@
         <f>Config!C20</f>
         <v>Erika</v>
       </c>
-      <c r="BD13" s="198"/>
-      <c r="BE13" s="202"/>
-      <c r="BF13" s="195"/>
-      <c r="BG13" s="195"/>
-      <c r="BH13" s="195"/>
-      <c r="BI13" s="195"/>
-      <c r="BJ13" s="195"/>
-      <c r="BK13" s="195"/>
-      <c r="BL13" s="195"/>
-      <c r="BM13" s="195"/>
-      <c r="BN13" s="195"/>
-      <c r="BO13" s="195"/>
-      <c r="BP13" s="195"/>
-      <c r="BQ13" s="195"/>
-      <c r="BR13" s="195"/>
-      <c r="BS13" s="195"/>
-      <c r="BT13" s="195"/>
-      <c r="BU13" s="195"/>
-      <c r="BV13" s="195"/>
-      <c r="BW13" s="195"/>
-      <c r="BX13" s="195"/>
-      <c r="BY13" s="195"/>
-      <c r="BZ13" s="195"/>
-      <c r="CA13" s="195"/>
-      <c r="CB13" s="195"/>
-      <c r="CC13" s="195"/>
-      <c r="CD13" s="195"/>
-      <c r="CE13" s="195"/>
-      <c r="CF13" s="195"/>
-      <c r="CG13" s="195"/>
-      <c r="CH13" s="195"/>
-      <c r="CI13" s="195"/>
-      <c r="CJ13" s="195"/>
-      <c r="CK13" s="195"/>
-      <c r="CL13" s="195"/>
-      <c r="CM13" s="195"/>
+      <c r="BD13" s="112"/>
+      <c r="BE13" s="116"/>
+      <c r="BF13" s="109"/>
+      <c r="BG13" s="109"/>
+      <c r="BH13" s="109"/>
+      <c r="BI13" s="109"/>
+      <c r="BJ13" s="109"/>
+      <c r="BK13" s="109"/>
+      <c r="BL13" s="109"/>
+      <c r="BM13" s="109"/>
+      <c r="BN13" s="109"/>
+      <c r="BO13" s="109"/>
+      <c r="BP13" s="109"/>
+      <c r="BQ13" s="109"/>
+      <c r="BR13" s="109"/>
+      <c r="BS13" s="109"/>
+      <c r="BT13" s="109"/>
+      <c r="BU13" s="109"/>
+      <c r="BV13" s="109"/>
+      <c r="BW13" s="109"/>
+      <c r="BX13" s="109"/>
+      <c r="BY13" s="109"/>
+      <c r="BZ13" s="109"/>
+      <c r="CA13" s="109"/>
+      <c r="CB13" s="109"/>
+      <c r="CC13" s="109"/>
+      <c r="CD13" s="109"/>
+      <c r="CE13" s="109"/>
+      <c r="CF13" s="109"/>
+      <c r="CG13" s="109"/>
+      <c r="CH13" s="109"/>
+      <c r="CI13" s="109"/>
+      <c r="CJ13" s="109"/>
+      <c r="CK13" s="109"/>
+      <c r="CL13" s="109"/>
+      <c r="CM13" s="109"/>
     </row>
     <row r="14" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="158"/>
-      <c r="B14" s="159" t="s">
+      <c r="A14" s="187"/>
+      <c r="B14" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="60" t="s">
         <v>10</v>
       </c>
@@ -35996,50 +35983,50 @@
         <f>Config!C21</f>
         <v>Magaly</v>
       </c>
-      <c r="BD14" s="198"/>
-      <c r="BE14" s="195"/>
-      <c r="BF14" s="195"/>
-      <c r="BG14" s="195"/>
-      <c r="BH14" s="195"/>
-      <c r="BI14" s="195"/>
-      <c r="BJ14" s="195"/>
-      <c r="BK14" s="195"/>
-      <c r="BL14" s="195"/>
-      <c r="BM14" s="195"/>
-      <c r="BN14" s="195"/>
-      <c r="BO14" s="195"/>
-      <c r="BP14" s="195"/>
-      <c r="BQ14" s="195"/>
-      <c r="BR14" s="195"/>
-      <c r="BS14" s="195"/>
-      <c r="BT14" s="195"/>
-      <c r="BU14" s="195"/>
-      <c r="BV14" s="195"/>
-      <c r="BW14" s="195"/>
-      <c r="BX14" s="195"/>
-      <c r="BY14" s="195"/>
-      <c r="BZ14" s="195"/>
-      <c r="CA14" s="195"/>
-      <c r="CB14" s="195"/>
-      <c r="CC14" s="195"/>
-      <c r="CD14" s="195"/>
-      <c r="CE14" s="195"/>
-      <c r="CF14" s="195"/>
-      <c r="CG14" s="195"/>
-      <c r="CH14" s="195"/>
-      <c r="CI14" s="195"/>
-      <c r="CJ14" s="195"/>
-      <c r="CK14" s="195"/>
-      <c r="CL14" s="195"/>
-      <c r="CM14" s="195"/>
+      <c r="BD14" s="112"/>
+      <c r="BE14" s="109"/>
+      <c r="BF14" s="109"/>
+      <c r="BG14" s="109"/>
+      <c r="BH14" s="109"/>
+      <c r="BI14" s="109"/>
+      <c r="BJ14" s="109"/>
+      <c r="BK14" s="109"/>
+      <c r="BL14" s="109"/>
+      <c r="BM14" s="109"/>
+      <c r="BN14" s="109"/>
+      <c r="BO14" s="109"/>
+      <c r="BP14" s="109"/>
+      <c r="BQ14" s="109"/>
+      <c r="BR14" s="109"/>
+      <c r="BS14" s="109"/>
+      <c r="BT14" s="109"/>
+      <c r="BU14" s="109"/>
+      <c r="BV14" s="109"/>
+      <c r="BW14" s="109"/>
+      <c r="BX14" s="109"/>
+      <c r="BY14" s="109"/>
+      <c r="BZ14" s="109"/>
+      <c r="CA14" s="109"/>
+      <c r="CB14" s="109"/>
+      <c r="CC14" s="109"/>
+      <c r="CD14" s="109"/>
+      <c r="CE14" s="109"/>
+      <c r="CF14" s="109"/>
+      <c r="CG14" s="109"/>
+      <c r="CH14" s="109"/>
+      <c r="CI14" s="109"/>
+      <c r="CJ14" s="109"/>
+      <c r="CK14" s="109"/>
+      <c r="CL14" s="109"/>
+      <c r="CM14" s="109"/>
     </row>
     <row r="15" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="158"/>
-      <c r="B15" s="159" t="s">
+      <c r="A15" s="187"/>
+      <c r="B15" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="190"/>
       <c r="E15" s="60" t="s">
         <v>47</v>
       </c>
@@ -36049,7 +36036,7 @@
       <c r="G15" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="82">
         <v>1</v>
       </c>
       <c r="I15" s="55"/>
@@ -36108,50 +36095,50 @@
         <f>Config!I17</f>
         <v>0</v>
       </c>
-      <c r="BD15" s="198"/>
-      <c r="BE15" s="195"/>
-      <c r="BF15" s="195"/>
-      <c r="BG15" s="195"/>
-      <c r="BH15" s="195"/>
-      <c r="BI15" s="195"/>
-      <c r="BJ15" s="195"/>
-      <c r="BK15" s="195"/>
-      <c r="BL15" s="195"/>
-      <c r="BM15" s="195"/>
-      <c r="BN15" s="195"/>
-      <c r="BO15" s="195"/>
-      <c r="BP15" s="195"/>
-      <c r="BQ15" s="195"/>
-      <c r="BR15" s="195"/>
-      <c r="BS15" s="195"/>
-      <c r="BT15" s="195"/>
-      <c r="BU15" s="195"/>
-      <c r="BV15" s="195"/>
-      <c r="BW15" s="195"/>
-      <c r="BX15" s="195"/>
-      <c r="BY15" s="195"/>
-      <c r="BZ15" s="195"/>
-      <c r="CA15" s="195"/>
-      <c r="CB15" s="195"/>
-      <c r="CC15" s="195"/>
-      <c r="CD15" s="195"/>
-      <c r="CE15" s="195"/>
-      <c r="CF15" s="195"/>
-      <c r="CG15" s="195"/>
-      <c r="CH15" s="195"/>
-      <c r="CI15" s="195"/>
-      <c r="CJ15" s="195"/>
-      <c r="CK15" s="195"/>
-      <c r="CL15" s="195"/>
-      <c r="CM15" s="195"/>
+      <c r="BD15" s="112"/>
+      <c r="BE15" s="109"/>
+      <c r="BF15" s="109"/>
+      <c r="BG15" s="109"/>
+      <c r="BH15" s="109"/>
+      <c r="BI15" s="109"/>
+      <c r="BJ15" s="109"/>
+      <c r="BK15" s="109"/>
+      <c r="BL15" s="109"/>
+      <c r="BM15" s="109"/>
+      <c r="BN15" s="109"/>
+      <c r="BO15" s="109"/>
+      <c r="BP15" s="109"/>
+      <c r="BQ15" s="109"/>
+      <c r="BR15" s="109"/>
+      <c r="BS15" s="109"/>
+      <c r="BT15" s="109"/>
+      <c r="BU15" s="109"/>
+      <c r="BV15" s="109"/>
+      <c r="BW15" s="109"/>
+      <c r="BX15" s="109"/>
+      <c r="BY15" s="109"/>
+      <c r="BZ15" s="109"/>
+      <c r="CA15" s="109"/>
+      <c r="CB15" s="109"/>
+      <c r="CC15" s="109"/>
+      <c r="CD15" s="109"/>
+      <c r="CE15" s="109"/>
+      <c r="CF15" s="109"/>
+      <c r="CG15" s="109"/>
+      <c r="CH15" s="109"/>
+      <c r="CI15" s="109"/>
+      <c r="CJ15" s="109"/>
+      <c r="CK15" s="109"/>
+      <c r="CL15" s="109"/>
+      <c r="CM15" s="109"/>
     </row>
     <row r="16" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="158"/>
-      <c r="B16" s="159" t="s">
+      <c r="A16" s="187"/>
+      <c r="B16" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="190"/>
       <c r="E16" s="60" t="s">
         <v>68</v>
       </c>
@@ -36161,7 +36148,7 @@
       <c r="G16" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="82">
         <v>1</v>
       </c>
       <c r="I16" s="55"/>
@@ -36208,50 +36195,50 @@
       <c r="AX16" s="55"/>
       <c r="AY16" s="55"/>
       <c r="AZ16" s="55"/>
-      <c r="BD16" s="198"/>
-      <c r="BE16" s="195"/>
-      <c r="BF16" s="195"/>
-      <c r="BG16" s="195"/>
-      <c r="BH16" s="195"/>
-      <c r="BI16" s="195"/>
-      <c r="BJ16" s="195"/>
-      <c r="BK16" s="195"/>
-      <c r="BL16" s="195"/>
-      <c r="BM16" s="195"/>
-      <c r="BN16" s="195"/>
-      <c r="BO16" s="195"/>
-      <c r="BP16" s="195"/>
-      <c r="BQ16" s="195"/>
-      <c r="BR16" s="195"/>
-      <c r="BS16" s="195"/>
-      <c r="BT16" s="195"/>
-      <c r="BU16" s="195"/>
-      <c r="BV16" s="195"/>
-      <c r="BW16" s="195"/>
-      <c r="BX16" s="195"/>
-      <c r="BY16" s="195"/>
-      <c r="BZ16" s="195"/>
-      <c r="CA16" s="195"/>
-      <c r="CB16" s="195"/>
-      <c r="CC16" s="195"/>
-      <c r="CD16" s="195"/>
-      <c r="CE16" s="195"/>
-      <c r="CF16" s="195"/>
-      <c r="CG16" s="195"/>
-      <c r="CH16" s="195"/>
-      <c r="CI16" s="195"/>
-      <c r="CJ16" s="195"/>
-      <c r="CK16" s="195"/>
-      <c r="CL16" s="195"/>
-      <c r="CM16" s="195"/>
+      <c r="BD16" s="112"/>
+      <c r="BE16" s="109"/>
+      <c r="BF16" s="109"/>
+      <c r="BG16" s="109"/>
+      <c r="BH16" s="109"/>
+      <c r="BI16" s="109"/>
+      <c r="BJ16" s="109"/>
+      <c r="BK16" s="109"/>
+      <c r="BL16" s="109"/>
+      <c r="BM16" s="109"/>
+      <c r="BN16" s="109"/>
+      <c r="BO16" s="109"/>
+      <c r="BP16" s="109"/>
+      <c r="BQ16" s="109"/>
+      <c r="BR16" s="109"/>
+      <c r="BS16" s="109"/>
+      <c r="BT16" s="109"/>
+      <c r="BU16" s="109"/>
+      <c r="BV16" s="109"/>
+      <c r="BW16" s="109"/>
+      <c r="BX16" s="109"/>
+      <c r="BY16" s="109"/>
+      <c r="BZ16" s="109"/>
+      <c r="CA16" s="109"/>
+      <c r="CB16" s="109"/>
+      <c r="CC16" s="109"/>
+      <c r="CD16" s="109"/>
+      <c r="CE16" s="109"/>
+      <c r="CF16" s="109"/>
+      <c r="CG16" s="109"/>
+      <c r="CH16" s="109"/>
+      <c r="CI16" s="109"/>
+      <c r="CJ16" s="109"/>
+      <c r="CK16" s="109"/>
+      <c r="CL16" s="109"/>
+      <c r="CM16" s="109"/>
     </row>
     <row r="17" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="158"/>
-      <c r="B17" s="159" t="s">
+      <c r="A17" s="187"/>
+      <c r="B17" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="60" t="s">
         <v>68</v>
       </c>
@@ -36259,7 +36246,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
@@ -36310,50 +36297,50 @@
       <c r="AX17" s="55"/>
       <c r="AY17" s="55"/>
       <c r="AZ17" s="55"/>
-      <c r="BD17" s="193"/>
-      <c r="BE17" s="195"/>
-      <c r="BF17" s="195"/>
-      <c r="BG17" s="195"/>
-      <c r="BH17" s="195"/>
-      <c r="BI17" s="195"/>
-      <c r="BJ17" s="195"/>
-      <c r="BK17" s="195"/>
-      <c r="BL17" s="195"/>
-      <c r="BM17" s="195"/>
-      <c r="BN17" s="195"/>
-      <c r="BO17" s="195"/>
-      <c r="BP17" s="195"/>
-      <c r="BQ17" s="195"/>
-      <c r="BR17" s="195"/>
-      <c r="BS17" s="195"/>
-      <c r="BT17" s="195"/>
-      <c r="BU17" s="195"/>
-      <c r="BV17" s="195"/>
-      <c r="BW17" s="195"/>
-      <c r="BX17" s="195"/>
-      <c r="BY17" s="195"/>
-      <c r="BZ17" s="195"/>
-      <c r="CA17" s="195"/>
-      <c r="CB17" s="195"/>
-      <c r="CC17" s="195"/>
-      <c r="CD17" s="195"/>
-      <c r="CE17" s="195"/>
-      <c r="CF17" s="195"/>
-      <c r="CG17" s="195"/>
-      <c r="CH17" s="195"/>
-      <c r="CI17" s="195"/>
-      <c r="CJ17" s="195"/>
-      <c r="CK17" s="195"/>
-      <c r="CL17" s="195"/>
-      <c r="CM17" s="195"/>
+      <c r="BD17" s="107"/>
+      <c r="BE17" s="109"/>
+      <c r="BF17" s="109"/>
+      <c r="BG17" s="109"/>
+      <c r="BH17" s="109"/>
+      <c r="BI17" s="109"/>
+      <c r="BJ17" s="109"/>
+      <c r="BK17" s="109"/>
+      <c r="BL17" s="109"/>
+      <c r="BM17" s="109"/>
+      <c r="BN17" s="109"/>
+      <c r="BO17" s="109"/>
+      <c r="BP17" s="109"/>
+      <c r="BQ17" s="109"/>
+      <c r="BR17" s="109"/>
+      <c r="BS17" s="109"/>
+      <c r="BT17" s="109"/>
+      <c r="BU17" s="109"/>
+      <c r="BV17" s="109"/>
+      <c r="BW17" s="109"/>
+      <c r="BX17" s="109"/>
+      <c r="BY17" s="109"/>
+      <c r="BZ17" s="109"/>
+      <c r="CA17" s="109"/>
+      <c r="CB17" s="109"/>
+      <c r="CC17" s="109"/>
+      <c r="CD17" s="109"/>
+      <c r="CE17" s="109"/>
+      <c r="CF17" s="109"/>
+      <c r="CG17" s="109"/>
+      <c r="CH17" s="109"/>
+      <c r="CI17" s="109"/>
+      <c r="CJ17" s="109"/>
+      <c r="CK17" s="109"/>
+      <c r="CL17" s="109"/>
+      <c r="CM17" s="109"/>
     </row>
     <row r="18" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="61"/>
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="137"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="193"/>
       <c r="E18" s="60" t="s">
         <v>47</v>
       </c>
@@ -36414,50 +36401,50 @@
       <c r="AX18" s="55"/>
       <c r="AY18" s="55"/>
       <c r="AZ18" s="55"/>
-      <c r="BD18" s="193"/>
-      <c r="BE18" s="195"/>
-      <c r="BF18" s="195"/>
-      <c r="BG18" s="195"/>
-      <c r="BH18" s="195"/>
-      <c r="BI18" s="195"/>
-      <c r="BJ18" s="195"/>
-      <c r="BK18" s="195"/>
-      <c r="BL18" s="195"/>
-      <c r="BM18" s="195"/>
-      <c r="BN18" s="195"/>
-      <c r="BO18" s="195"/>
-      <c r="BP18" s="195"/>
-      <c r="BQ18" s="195"/>
-      <c r="BR18" s="195"/>
-      <c r="BS18" s="195"/>
-      <c r="BT18" s="195"/>
-      <c r="BU18" s="195"/>
-      <c r="BV18" s="195"/>
-      <c r="BW18" s="195"/>
-      <c r="BX18" s="195"/>
-      <c r="BY18" s="195"/>
-      <c r="BZ18" s="195"/>
-      <c r="CA18" s="195"/>
-      <c r="CB18" s="195"/>
-      <c r="CC18" s="195"/>
-      <c r="CD18" s="195"/>
-      <c r="CE18" s="195"/>
-      <c r="CF18" s="195"/>
-      <c r="CG18" s="195"/>
-      <c r="CH18" s="195"/>
-      <c r="CI18" s="195"/>
-      <c r="CJ18" s="195"/>
-      <c r="CK18" s="195"/>
-      <c r="CL18" s="195"/>
-      <c r="CM18" s="195"/>
+      <c r="BD18" s="107"/>
+      <c r="BE18" s="109"/>
+      <c r="BF18" s="109"/>
+      <c r="BG18" s="109"/>
+      <c r="BH18" s="109"/>
+      <c r="BI18" s="109"/>
+      <c r="BJ18" s="109"/>
+      <c r="BK18" s="109"/>
+      <c r="BL18" s="109"/>
+      <c r="BM18" s="109"/>
+      <c r="BN18" s="109"/>
+      <c r="BO18" s="109"/>
+      <c r="BP18" s="109"/>
+      <c r="BQ18" s="109"/>
+      <c r="BR18" s="109"/>
+      <c r="BS18" s="109"/>
+      <c r="BT18" s="109"/>
+      <c r="BU18" s="109"/>
+      <c r="BV18" s="109"/>
+      <c r="BW18" s="109"/>
+      <c r="BX18" s="109"/>
+      <c r="BY18" s="109"/>
+      <c r="BZ18" s="109"/>
+      <c r="CA18" s="109"/>
+      <c r="CB18" s="109"/>
+      <c r="CC18" s="109"/>
+      <c r="CD18" s="109"/>
+      <c r="CE18" s="109"/>
+      <c r="CF18" s="109"/>
+      <c r="CG18" s="109"/>
+      <c r="CH18" s="109"/>
+      <c r="CI18" s="109"/>
+      <c r="CJ18" s="109"/>
+      <c r="CK18" s="109"/>
+      <c r="CL18" s="109"/>
+      <c r="CM18" s="109"/>
     </row>
     <row r="19" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="61"/>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="193"/>
       <c r="E19" s="60" t="s">
         <v>11</v>
       </c>
@@ -36514,50 +36501,50 @@
       <c r="AX19" s="55"/>
       <c r="AY19" s="55"/>
       <c r="AZ19" s="55"/>
-      <c r="BD19" s="194"/>
-      <c r="BE19" s="195"/>
-      <c r="BF19" s="195"/>
-      <c r="BG19" s="195"/>
-      <c r="BH19" s="195"/>
-      <c r="BI19" s="195"/>
-      <c r="BJ19" s="195"/>
-      <c r="BK19" s="195"/>
-      <c r="BL19" s="195"/>
-      <c r="BM19" s="195"/>
-      <c r="BN19" s="195"/>
-      <c r="BO19" s="195"/>
-      <c r="BP19" s="195"/>
-      <c r="BQ19" s="195"/>
-      <c r="BR19" s="195"/>
-      <c r="BS19" s="195"/>
-      <c r="BT19" s="195"/>
-      <c r="BU19" s="195"/>
-      <c r="BV19" s="195"/>
-      <c r="BW19" s="195"/>
-      <c r="BX19" s="195"/>
-      <c r="BY19" s="195"/>
-      <c r="BZ19" s="195"/>
-      <c r="CA19" s="195"/>
-      <c r="CB19" s="195"/>
-      <c r="CC19" s="195"/>
-      <c r="CD19" s="195"/>
-      <c r="CE19" s="195"/>
-      <c r="CF19" s="195"/>
-      <c r="CG19" s="195"/>
-      <c r="CH19" s="195"/>
-      <c r="CI19" s="195"/>
-      <c r="CJ19" s="195"/>
-      <c r="CK19" s="195"/>
-      <c r="CL19" s="195"/>
-      <c r="CM19" s="195"/>
+      <c r="BD19" s="108"/>
+      <c r="BE19" s="109"/>
+      <c r="BF19" s="109"/>
+      <c r="BG19" s="109"/>
+      <c r="BH19" s="109"/>
+      <c r="BI19" s="109"/>
+      <c r="BJ19" s="109"/>
+      <c r="BK19" s="109"/>
+      <c r="BL19" s="109"/>
+      <c r="BM19" s="109"/>
+      <c r="BN19" s="109"/>
+      <c r="BO19" s="109"/>
+      <c r="BP19" s="109"/>
+      <c r="BQ19" s="109"/>
+      <c r="BR19" s="109"/>
+      <c r="BS19" s="109"/>
+      <c r="BT19" s="109"/>
+      <c r="BU19" s="109"/>
+      <c r="BV19" s="109"/>
+      <c r="BW19" s="109"/>
+      <c r="BX19" s="109"/>
+      <c r="BY19" s="109"/>
+      <c r="BZ19" s="109"/>
+      <c r="CA19" s="109"/>
+      <c r="CB19" s="109"/>
+      <c r="CC19" s="109"/>
+      <c r="CD19" s="109"/>
+      <c r="CE19" s="109"/>
+      <c r="CF19" s="109"/>
+      <c r="CG19" s="109"/>
+      <c r="CH19" s="109"/>
+      <c r="CI19" s="109"/>
+      <c r="CJ19" s="109"/>
+      <c r="CK19" s="109"/>
+      <c r="CL19" s="109"/>
+      <c r="CM19" s="109"/>
     </row>
     <row r="20" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="61"/>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="137"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="193"/>
       <c r="E20" s="60" t="s">
         <v>11</v>
       </c>
@@ -36614,51 +36601,51 @@
       <c r="AX20" s="55"/>
       <c r="AY20" s="55"/>
       <c r="AZ20" s="55"/>
-      <c r="BE20" s="195"/>
-      <c r="BF20" s="195"/>
-      <c r="BG20" s="195"/>
-      <c r="BH20" s="195"/>
-      <c r="BI20" s="195"/>
-      <c r="BJ20" s="195"/>
-      <c r="BK20" s="195"/>
-      <c r="BL20" s="195"/>
-      <c r="BM20" s="195"/>
-      <c r="BN20" s="195"/>
-      <c r="BO20" s="195"/>
-      <c r="BP20" s="195"/>
-      <c r="BQ20" s="195"/>
-      <c r="BR20" s="195"/>
-      <c r="BS20" s="195"/>
-      <c r="BT20" s="195"/>
-      <c r="BU20" s="195"/>
-      <c r="BV20" s="195"/>
-      <c r="BW20" s="195"/>
-      <c r="BX20" s="195"/>
-      <c r="BY20" s="195"/>
-      <c r="BZ20" s="195"/>
-      <c r="CA20" s="195"/>
-      <c r="CB20" s="195"/>
-      <c r="CC20" s="195"/>
-      <c r="CD20" s="195"/>
-      <c r="CE20" s="195"/>
-      <c r="CF20" s="195"/>
-      <c r="CG20" s="195"/>
-      <c r="CH20" s="195"/>
-      <c r="CI20" s="195"/>
-      <c r="CJ20" s="195"/>
-      <c r="CK20" s="195"/>
-      <c r="CL20" s="195"/>
-      <c r="CM20" s="195"/>
+      <c r="BE20" s="109"/>
+      <c r="BF20" s="109"/>
+      <c r="BG20" s="109"/>
+      <c r="BH20" s="109"/>
+      <c r="BI20" s="109"/>
+      <c r="BJ20" s="109"/>
+      <c r="BK20" s="109"/>
+      <c r="BL20" s="109"/>
+      <c r="BM20" s="109"/>
+      <c r="BN20" s="109"/>
+      <c r="BO20" s="109"/>
+      <c r="BP20" s="109"/>
+      <c r="BQ20" s="109"/>
+      <c r="BR20" s="109"/>
+      <c r="BS20" s="109"/>
+      <c r="BT20" s="109"/>
+      <c r="BU20" s="109"/>
+      <c r="BV20" s="109"/>
+      <c r="BW20" s="109"/>
+      <c r="BX20" s="109"/>
+      <c r="BY20" s="109"/>
+      <c r="BZ20" s="109"/>
+      <c r="CA20" s="109"/>
+      <c r="CB20" s="109"/>
+      <c r="CC20" s="109"/>
+      <c r="CD20" s="109"/>
+      <c r="CE20" s="109"/>
+      <c r="CF20" s="109"/>
+      <c r="CG20" s="109"/>
+      <c r="CH20" s="109"/>
+      <c r="CI20" s="109"/>
+      <c r="CJ20" s="109"/>
+      <c r="CK20" s="109"/>
+      <c r="CL20" s="109"/>
+      <c r="CM20" s="109"/>
     </row>
     <row r="21" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="190"/>
       <c r="E21" s="60" t="s">
         <v>11</v>
       </c>
@@ -36715,51 +36702,51 @@
       <c r="AX21" s="55"/>
       <c r="AY21" s="55"/>
       <c r="AZ21" s="55"/>
-      <c r="BE21" s="195"/>
-      <c r="BF21" s="195"/>
-      <c r="BG21" s="195"/>
-      <c r="BH21" s="195"/>
-      <c r="BI21" s="195"/>
-      <c r="BJ21" s="195"/>
-      <c r="BK21" s="195"/>
-      <c r="BL21" s="195"/>
-      <c r="BM21" s="195"/>
-      <c r="BN21" s="195"/>
-      <c r="BO21" s="195"/>
-      <c r="BP21" s="195"/>
-      <c r="BQ21" s="195"/>
-      <c r="BR21" s="195"/>
-      <c r="BS21" s="195"/>
-      <c r="BT21" s="195"/>
-      <c r="BU21" s="195"/>
-      <c r="BV21" s="195"/>
-      <c r="BW21" s="195"/>
-      <c r="BX21" s="195"/>
-      <c r="BY21" s="195"/>
-      <c r="BZ21" s="195"/>
-      <c r="CA21" s="195"/>
-      <c r="CB21" s="195"/>
-      <c r="CC21" s="195"/>
-      <c r="CD21" s="195"/>
-      <c r="CE21" s="195"/>
-      <c r="CF21" s="195"/>
-      <c r="CG21" s="195"/>
-      <c r="CH21" s="195"/>
-      <c r="CI21" s="195"/>
-      <c r="CJ21" s="195"/>
-      <c r="CK21" s="195"/>
-      <c r="CL21" s="195"/>
-      <c r="CM21" s="195"/>
+      <c r="BE21" s="109"/>
+      <c r="BF21" s="109"/>
+      <c r="BG21" s="109"/>
+      <c r="BH21" s="109"/>
+      <c r="BI21" s="109"/>
+      <c r="BJ21" s="109"/>
+      <c r="BK21" s="109"/>
+      <c r="BL21" s="109"/>
+      <c r="BM21" s="109"/>
+      <c r="BN21" s="109"/>
+      <c r="BO21" s="109"/>
+      <c r="BP21" s="109"/>
+      <c r="BQ21" s="109"/>
+      <c r="BR21" s="109"/>
+      <c r="BS21" s="109"/>
+      <c r="BT21" s="109"/>
+      <c r="BU21" s="109"/>
+      <c r="BV21" s="109"/>
+      <c r="BW21" s="109"/>
+      <c r="BX21" s="109"/>
+      <c r="BY21" s="109"/>
+      <c r="BZ21" s="109"/>
+      <c r="CA21" s="109"/>
+      <c r="CB21" s="109"/>
+      <c r="CC21" s="109"/>
+      <c r="CD21" s="109"/>
+      <c r="CE21" s="109"/>
+      <c r="CF21" s="109"/>
+      <c r="CG21" s="109"/>
+      <c r="CH21" s="109"/>
+      <c r="CI21" s="109"/>
+      <c r="CJ21" s="109"/>
+      <c r="CK21" s="109"/>
+      <c r="CL21" s="109"/>
+      <c r="CM21" s="109"/>
     </row>
     <row r="22" spans="1:91" s="39" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
       <c r="E22" s="63" t="s">
         <v>48</v>
       </c>
@@ -36828,51 +36815,51 @@
       <c r="AX22" s="57"/>
       <c r="AY22" s="57"/>
       <c r="AZ22" s="57"/>
-      <c r="BE22" s="195"/>
-      <c r="BF22" s="195"/>
-      <c r="BG22" s="195"/>
-      <c r="BH22" s="195"/>
-      <c r="BI22" s="195"/>
-      <c r="BJ22" s="195"/>
-      <c r="BK22" s="195"/>
-      <c r="BL22" s="195"/>
-      <c r="BM22" s="195"/>
-      <c r="BN22" s="195"/>
-      <c r="BO22" s="195"/>
-      <c r="BP22" s="195"/>
-      <c r="BQ22" s="195"/>
-      <c r="BR22" s="195"/>
-      <c r="BS22" s="195"/>
-      <c r="BT22" s="195"/>
-      <c r="BU22" s="195"/>
-      <c r="BV22" s="195"/>
-      <c r="BW22" s="195"/>
-      <c r="BX22" s="195"/>
-      <c r="BY22" s="195"/>
-      <c r="BZ22" s="195"/>
-      <c r="CA22" s="195"/>
-      <c r="CB22" s="195"/>
-      <c r="CC22" s="195"/>
-      <c r="CD22" s="195"/>
-      <c r="CE22" s="195"/>
-      <c r="CF22" s="195"/>
-      <c r="CG22" s="195"/>
-      <c r="CH22" s="195"/>
-      <c r="CI22" s="195"/>
-      <c r="CJ22" s="195"/>
-      <c r="CK22" s="195"/>
-      <c r="CL22" s="195"/>
-      <c r="CM22" s="195"/>
+      <c r="BE22" s="109"/>
+      <c r="BF22" s="109"/>
+      <c r="BG22" s="109"/>
+      <c r="BH22" s="109"/>
+      <c r="BI22" s="109"/>
+      <c r="BJ22" s="109"/>
+      <c r="BK22" s="109"/>
+      <c r="BL22" s="109"/>
+      <c r="BM22" s="109"/>
+      <c r="BN22" s="109"/>
+      <c r="BO22" s="109"/>
+      <c r="BP22" s="109"/>
+      <c r="BQ22" s="109"/>
+      <c r="BR22" s="109"/>
+      <c r="BS22" s="109"/>
+      <c r="BT22" s="109"/>
+      <c r="BU22" s="109"/>
+      <c r="BV22" s="109"/>
+      <c r="BW22" s="109"/>
+      <c r="BX22" s="109"/>
+      <c r="BY22" s="109"/>
+      <c r="BZ22" s="109"/>
+      <c r="CA22" s="109"/>
+      <c r="CB22" s="109"/>
+      <c r="CC22" s="109"/>
+      <c r="CD22" s="109"/>
+      <c r="CE22" s="109"/>
+      <c r="CF22" s="109"/>
+      <c r="CG22" s="109"/>
+      <c r="CH22" s="109"/>
+      <c r="CI22" s="109"/>
+      <c r="CJ22" s="109"/>
+      <c r="CK22" s="109"/>
+      <c r="CL22" s="109"/>
+      <c r="CM22" s="109"/>
     </row>
     <row r="23" spans="1:91" s="39" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
       <c r="E23" s="63" t="s">
         <v>48</v>
       </c>
@@ -36941,51 +36928,51 @@
       <c r="AX23" s="57"/>
       <c r="AY23" s="57"/>
       <c r="AZ23" s="57"/>
-      <c r="BE23" s="195"/>
-      <c r="BF23" s="195"/>
-      <c r="BG23" s="195"/>
-      <c r="BH23" s="195"/>
-      <c r="BI23" s="195"/>
-      <c r="BJ23" s="195"/>
-      <c r="BK23" s="195"/>
-      <c r="BL23" s="195"/>
-      <c r="BM23" s="195"/>
-      <c r="BN23" s="195"/>
-      <c r="BO23" s="195"/>
-      <c r="BP23" s="195"/>
-      <c r="BQ23" s="195"/>
-      <c r="BR23" s="195"/>
-      <c r="BS23" s="195"/>
-      <c r="BT23" s="195"/>
-      <c r="BU23" s="195"/>
-      <c r="BV23" s="195"/>
-      <c r="BW23" s="195"/>
-      <c r="BX23" s="195"/>
-      <c r="BY23" s="195"/>
-      <c r="BZ23" s="195"/>
-      <c r="CA23" s="195"/>
-      <c r="CB23" s="195"/>
-      <c r="CC23" s="195"/>
-      <c r="CD23" s="195"/>
-      <c r="CE23" s="195"/>
-      <c r="CF23" s="195"/>
-      <c r="CG23" s="195"/>
-      <c r="CH23" s="195"/>
-      <c r="CI23" s="195"/>
-      <c r="CJ23" s="195"/>
-      <c r="CK23" s="195"/>
-      <c r="CL23" s="195"/>
-      <c r="CM23" s="195"/>
+      <c r="BE23" s="109"/>
+      <c r="BF23" s="109"/>
+      <c r="BG23" s="109"/>
+      <c r="BH23" s="109"/>
+      <c r="BI23" s="109"/>
+      <c r="BJ23" s="109"/>
+      <c r="BK23" s="109"/>
+      <c r="BL23" s="109"/>
+      <c r="BM23" s="109"/>
+      <c r="BN23" s="109"/>
+      <c r="BO23" s="109"/>
+      <c r="BP23" s="109"/>
+      <c r="BQ23" s="109"/>
+      <c r="BR23" s="109"/>
+      <c r="BS23" s="109"/>
+      <c r="BT23" s="109"/>
+      <c r="BU23" s="109"/>
+      <c r="BV23" s="109"/>
+      <c r="BW23" s="109"/>
+      <c r="BX23" s="109"/>
+      <c r="BY23" s="109"/>
+      <c r="BZ23" s="109"/>
+      <c r="CA23" s="109"/>
+      <c r="CB23" s="109"/>
+      <c r="CC23" s="109"/>
+      <c r="CD23" s="109"/>
+      <c r="CE23" s="109"/>
+      <c r="CF23" s="109"/>
+      <c r="CG23" s="109"/>
+      <c r="CH23" s="109"/>
+      <c r="CI23" s="109"/>
+      <c r="CJ23" s="109"/>
+      <c r="CK23" s="109"/>
+      <c r="CL23" s="109"/>
+      <c r="CM23" s="109"/>
     </row>
     <row r="24" spans="1:91" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="64" t="s">
         <v>10</v>
       </c>
@@ -37046,49 +37033,49 @@
       <c r="BB24" s="53"/>
       <c r="BC24" s="53"/>
       <c r="BD24" s="53"/>
-      <c r="BE24" s="195"/>
-      <c r="BF24" s="195"/>
-      <c r="BG24" s="195"/>
-      <c r="BH24" s="195"/>
-      <c r="BI24" s="195"/>
-      <c r="BJ24" s="195"/>
-      <c r="BK24" s="195"/>
-      <c r="BL24" s="195"/>
-      <c r="BM24" s="195"/>
-      <c r="BN24" s="195"/>
-      <c r="BO24" s="195"/>
-      <c r="BP24" s="195"/>
-      <c r="BQ24" s="195"/>
-      <c r="BR24" s="195"/>
-      <c r="BS24" s="195"/>
-      <c r="BT24" s="195"/>
-      <c r="BU24" s="195"/>
-      <c r="BV24" s="195"/>
-      <c r="BW24" s="195"/>
-      <c r="BX24" s="195"/>
-      <c r="BY24" s="195"/>
-      <c r="BZ24" s="195"/>
-      <c r="CA24" s="195"/>
-      <c r="CB24" s="195"/>
-      <c r="CC24" s="195"/>
-      <c r="CD24" s="195"/>
-      <c r="CE24" s="195"/>
-      <c r="CF24" s="195"/>
-      <c r="CG24" s="195"/>
-      <c r="CH24" s="195"/>
-      <c r="CI24" s="195"/>
-      <c r="CJ24" s="195"/>
-      <c r="CK24" s="195"/>
-      <c r="CL24" s="195"/>
-      <c r="CM24" s="195"/>
+      <c r="BE24" s="109"/>
+      <c r="BF24" s="109"/>
+      <c r="BG24" s="109"/>
+      <c r="BH24" s="109"/>
+      <c r="BI24" s="109"/>
+      <c r="BJ24" s="109"/>
+      <c r="BK24" s="109"/>
+      <c r="BL24" s="109"/>
+      <c r="BM24" s="109"/>
+      <c r="BN24" s="109"/>
+      <c r="BO24" s="109"/>
+      <c r="BP24" s="109"/>
+      <c r="BQ24" s="109"/>
+      <c r="BR24" s="109"/>
+      <c r="BS24" s="109"/>
+      <c r="BT24" s="109"/>
+      <c r="BU24" s="109"/>
+      <c r="BV24" s="109"/>
+      <c r="BW24" s="109"/>
+      <c r="BX24" s="109"/>
+      <c r="BY24" s="109"/>
+      <c r="BZ24" s="109"/>
+      <c r="CA24" s="109"/>
+      <c r="CB24" s="109"/>
+      <c r="CC24" s="109"/>
+      <c r="CD24" s="109"/>
+      <c r="CE24" s="109"/>
+      <c r="CF24" s="109"/>
+      <c r="CG24" s="109"/>
+      <c r="CH24" s="109"/>
+      <c r="CI24" s="109"/>
+      <c r="CJ24" s="109"/>
+      <c r="CK24" s="109"/>
+      <c r="CL24" s="109"/>
+      <c r="CM24" s="109"/>
     </row>
     <row r="25" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="154" t="s">
+      <c r="A25" s="195"/>
+      <c r="B25" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="179"/>
       <c r="E25" s="64" t="s">
         <v>10</v>
       </c>
@@ -37149,49 +37136,49 @@
       <c r="BB25" s="53"/>
       <c r="BC25" s="53"/>
       <c r="BD25" s="53"/>
-      <c r="BE25" s="195"/>
-      <c r="BF25" s="195"/>
-      <c r="BG25" s="195"/>
-      <c r="BH25" s="195"/>
-      <c r="BI25" s="195"/>
-      <c r="BJ25" s="195"/>
-      <c r="BK25" s="195"/>
-      <c r="BL25" s="195"/>
-      <c r="BM25" s="195"/>
-      <c r="BN25" s="195"/>
-      <c r="BO25" s="195"/>
-      <c r="BP25" s="195"/>
-      <c r="BQ25" s="195"/>
-      <c r="BR25" s="195"/>
-      <c r="BS25" s="195"/>
-      <c r="BT25" s="195"/>
-      <c r="BU25" s="195"/>
-      <c r="BV25" s="195"/>
-      <c r="BW25" s="195"/>
-      <c r="BX25" s="195"/>
-      <c r="BY25" s="195"/>
-      <c r="BZ25" s="195"/>
-      <c r="CA25" s="195"/>
-      <c r="CB25" s="195"/>
-      <c r="CC25" s="195"/>
-      <c r="CD25" s="195"/>
-      <c r="CE25" s="195"/>
-      <c r="CF25" s="195"/>
-      <c r="CG25" s="195"/>
-      <c r="CH25" s="195"/>
-      <c r="CI25" s="195"/>
-      <c r="CJ25" s="195"/>
-      <c r="CK25" s="195"/>
-      <c r="CL25" s="195"/>
-      <c r="CM25" s="195"/>
+      <c r="BE25" s="109"/>
+      <c r="BF25" s="109"/>
+      <c r="BG25" s="109"/>
+      <c r="BH25" s="109"/>
+      <c r="BI25" s="109"/>
+      <c r="BJ25" s="109"/>
+      <c r="BK25" s="109"/>
+      <c r="BL25" s="109"/>
+      <c r="BM25" s="109"/>
+      <c r="BN25" s="109"/>
+      <c r="BO25" s="109"/>
+      <c r="BP25" s="109"/>
+      <c r="BQ25" s="109"/>
+      <c r="BR25" s="109"/>
+      <c r="BS25" s="109"/>
+      <c r="BT25" s="109"/>
+      <c r="BU25" s="109"/>
+      <c r="BV25" s="109"/>
+      <c r="BW25" s="109"/>
+      <c r="BX25" s="109"/>
+      <c r="BY25" s="109"/>
+      <c r="BZ25" s="109"/>
+      <c r="CA25" s="109"/>
+      <c r="CB25" s="109"/>
+      <c r="CC25" s="109"/>
+      <c r="CD25" s="109"/>
+      <c r="CE25" s="109"/>
+      <c r="CF25" s="109"/>
+      <c r="CG25" s="109"/>
+      <c r="CH25" s="109"/>
+      <c r="CI25" s="109"/>
+      <c r="CJ25" s="109"/>
+      <c r="CK25" s="109"/>
+      <c r="CL25" s="109"/>
+      <c r="CM25" s="109"/>
     </row>
     <row r="26" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="154" t="s">
+      <c r="A26" s="195"/>
+      <c r="B26" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="156"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="64" t="s">
         <v>47</v>
       </c>
@@ -37258,49 +37245,49 @@
       <c r="BB26" s="53"/>
       <c r="BC26" s="53"/>
       <c r="BD26" s="53"/>
-      <c r="BE26" s="195"/>
-      <c r="BF26" s="195"/>
-      <c r="BG26" s="195"/>
-      <c r="BH26" s="195"/>
-      <c r="BI26" s="195"/>
-      <c r="BJ26" s="195"/>
-      <c r="BK26" s="195"/>
-      <c r="BL26" s="195"/>
-      <c r="BM26" s="195"/>
-      <c r="BN26" s="195"/>
-      <c r="BO26" s="195"/>
-      <c r="BP26" s="195"/>
-      <c r="BQ26" s="195"/>
-      <c r="BR26" s="195"/>
-      <c r="BS26" s="195"/>
-      <c r="BT26" s="195"/>
-      <c r="BU26" s="195"/>
-      <c r="BV26" s="195"/>
-      <c r="BW26" s="195"/>
-      <c r="BX26" s="195"/>
-      <c r="BY26" s="195"/>
-      <c r="BZ26" s="195"/>
-      <c r="CA26" s="195"/>
-      <c r="CB26" s="195"/>
-      <c r="CC26" s="195"/>
-      <c r="CD26" s="195"/>
-      <c r="CE26" s="195"/>
-      <c r="CF26" s="195"/>
-      <c r="CG26" s="195"/>
-      <c r="CH26" s="195"/>
-      <c r="CI26" s="195"/>
-      <c r="CJ26" s="195"/>
-      <c r="CK26" s="195"/>
-      <c r="CL26" s="195"/>
-      <c r="CM26" s="195"/>
+      <c r="BE26" s="109"/>
+      <c r="BF26" s="109"/>
+      <c r="BG26" s="109"/>
+      <c r="BH26" s="109"/>
+      <c r="BI26" s="109"/>
+      <c r="BJ26" s="109"/>
+      <c r="BK26" s="109"/>
+      <c r="BL26" s="109"/>
+      <c r="BM26" s="109"/>
+      <c r="BN26" s="109"/>
+      <c r="BO26" s="109"/>
+      <c r="BP26" s="109"/>
+      <c r="BQ26" s="109"/>
+      <c r="BR26" s="109"/>
+      <c r="BS26" s="109"/>
+      <c r="BT26" s="109"/>
+      <c r="BU26" s="109"/>
+      <c r="BV26" s="109"/>
+      <c r="BW26" s="109"/>
+      <c r="BX26" s="109"/>
+      <c r="BY26" s="109"/>
+      <c r="BZ26" s="109"/>
+      <c r="CA26" s="109"/>
+      <c r="CB26" s="109"/>
+      <c r="CC26" s="109"/>
+      <c r="CD26" s="109"/>
+      <c r="CE26" s="109"/>
+      <c r="CF26" s="109"/>
+      <c r="CG26" s="109"/>
+      <c r="CH26" s="109"/>
+      <c r="CI26" s="109"/>
+      <c r="CJ26" s="109"/>
+      <c r="CK26" s="109"/>
+      <c r="CL26" s="109"/>
+      <c r="CM26" s="109"/>
     </row>
     <row r="27" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="139"/>
-      <c r="B27" s="154" t="s">
+      <c r="A27" s="195"/>
+      <c r="B27" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="64" t="s">
         <v>68</v>
       </c>
@@ -37361,49 +37348,49 @@
       <c r="BB27" s="53"/>
       <c r="BC27" s="53"/>
       <c r="BD27" s="53"/>
-      <c r="BE27" s="195"/>
-      <c r="BF27" s="195"/>
-      <c r="BG27" s="195"/>
-      <c r="BH27" s="195"/>
-      <c r="BI27" s="195"/>
-      <c r="BJ27" s="195"/>
-      <c r="BK27" s="195"/>
-      <c r="BL27" s="195"/>
-      <c r="BM27" s="195"/>
-      <c r="BN27" s="195"/>
-      <c r="BO27" s="195"/>
-      <c r="BP27" s="195"/>
-      <c r="BQ27" s="195"/>
-      <c r="BR27" s="195"/>
-      <c r="BS27" s="195"/>
-      <c r="BT27" s="195"/>
-      <c r="BU27" s="195"/>
-      <c r="BV27" s="195"/>
-      <c r="BW27" s="195"/>
-      <c r="BX27" s="195"/>
-      <c r="BY27" s="195"/>
-      <c r="BZ27" s="195"/>
-      <c r="CA27" s="195"/>
-      <c r="CB27" s="195"/>
-      <c r="CC27" s="195"/>
-      <c r="CD27" s="195"/>
-      <c r="CE27" s="195"/>
-      <c r="CF27" s="195"/>
-      <c r="CG27" s="195"/>
-      <c r="CH27" s="195"/>
-      <c r="CI27" s="195"/>
-      <c r="CJ27" s="195"/>
-      <c r="CK27" s="195"/>
-      <c r="CL27" s="195"/>
-      <c r="CM27" s="195"/>
+      <c r="BE27" s="109"/>
+      <c r="BF27" s="109"/>
+      <c r="BG27" s="109"/>
+      <c r="BH27" s="109"/>
+      <c r="BI27" s="109"/>
+      <c r="BJ27" s="109"/>
+      <c r="BK27" s="109"/>
+      <c r="BL27" s="109"/>
+      <c r="BM27" s="109"/>
+      <c r="BN27" s="109"/>
+      <c r="BO27" s="109"/>
+      <c r="BP27" s="109"/>
+      <c r="BQ27" s="109"/>
+      <c r="BR27" s="109"/>
+      <c r="BS27" s="109"/>
+      <c r="BT27" s="109"/>
+      <c r="BU27" s="109"/>
+      <c r="BV27" s="109"/>
+      <c r="BW27" s="109"/>
+      <c r="BX27" s="109"/>
+      <c r="BY27" s="109"/>
+      <c r="BZ27" s="109"/>
+      <c r="CA27" s="109"/>
+      <c r="CB27" s="109"/>
+      <c r="CC27" s="109"/>
+      <c r="CD27" s="109"/>
+      <c r="CE27" s="109"/>
+      <c r="CF27" s="109"/>
+      <c r="CG27" s="109"/>
+      <c r="CH27" s="109"/>
+      <c r="CI27" s="109"/>
+      <c r="CJ27" s="109"/>
+      <c r="CK27" s="109"/>
+      <c r="CL27" s="109"/>
+      <c r="CM27" s="109"/>
     </row>
     <row r="28" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="139"/>
-      <c r="B28" s="154" t="s">
+      <c r="A28" s="195"/>
+      <c r="B28" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="64" t="s">
         <v>68</v>
       </c>
@@ -37411,7 +37398,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
@@ -37464,49 +37451,49 @@
       <c r="BB28" s="53"/>
       <c r="BC28" s="53"/>
       <c r="BD28" s="53"/>
-      <c r="BE28" s="195"/>
-      <c r="BF28" s="195"/>
-      <c r="BG28" s="195"/>
-      <c r="BH28" s="195"/>
-      <c r="BI28" s="195"/>
-      <c r="BJ28" s="195"/>
-      <c r="BK28" s="195"/>
-      <c r="BL28" s="195"/>
-      <c r="BM28" s="195"/>
-      <c r="BN28" s="195"/>
-      <c r="BO28" s="195"/>
-      <c r="BP28" s="195"/>
-      <c r="BQ28" s="195"/>
-      <c r="BR28" s="195"/>
-      <c r="BS28" s="195"/>
-      <c r="BT28" s="195"/>
-      <c r="BU28" s="195"/>
-      <c r="BV28" s="195"/>
-      <c r="BW28" s="195"/>
-      <c r="BX28" s="195"/>
-      <c r="BY28" s="195"/>
-      <c r="BZ28" s="195"/>
-      <c r="CA28" s="195"/>
-      <c r="CB28" s="195"/>
-      <c r="CC28" s="195"/>
-      <c r="CD28" s="195"/>
-      <c r="CE28" s="195"/>
-      <c r="CF28" s="195"/>
-      <c r="CG28" s="195"/>
-      <c r="CH28" s="195"/>
-      <c r="CI28" s="195"/>
-      <c r="CJ28" s="195"/>
-      <c r="CK28" s="195"/>
-      <c r="CL28" s="195"/>
-      <c r="CM28" s="195"/>
+      <c r="BE28" s="109"/>
+      <c r="BF28" s="109"/>
+      <c r="BG28" s="109"/>
+      <c r="BH28" s="109"/>
+      <c r="BI28" s="109"/>
+      <c r="BJ28" s="109"/>
+      <c r="BK28" s="109"/>
+      <c r="BL28" s="109"/>
+      <c r="BM28" s="109"/>
+      <c r="BN28" s="109"/>
+      <c r="BO28" s="109"/>
+      <c r="BP28" s="109"/>
+      <c r="BQ28" s="109"/>
+      <c r="BR28" s="109"/>
+      <c r="BS28" s="109"/>
+      <c r="BT28" s="109"/>
+      <c r="BU28" s="109"/>
+      <c r="BV28" s="109"/>
+      <c r="BW28" s="109"/>
+      <c r="BX28" s="109"/>
+      <c r="BY28" s="109"/>
+      <c r="BZ28" s="109"/>
+      <c r="CA28" s="109"/>
+      <c r="CB28" s="109"/>
+      <c r="CC28" s="109"/>
+      <c r="CD28" s="109"/>
+      <c r="CE28" s="109"/>
+      <c r="CF28" s="109"/>
+      <c r="CG28" s="109"/>
+      <c r="CH28" s="109"/>
+      <c r="CI28" s="109"/>
+      <c r="CJ28" s="109"/>
+      <c r="CK28" s="109"/>
+      <c r="CL28" s="109"/>
+      <c r="CM28" s="109"/>
     </row>
     <row r="29" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A29" s="65"/>
-      <c r="B29" s="149" t="s">
+      <c r="B29" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185"/>
       <c r="E29" s="64" t="s">
         <v>47</v>
       </c>
@@ -37573,49 +37560,49 @@
       <c r="BB29" s="53"/>
       <c r="BC29" s="53"/>
       <c r="BD29" s="53"/>
-      <c r="BE29" s="195"/>
-      <c r="BF29" s="195"/>
-      <c r="BG29" s="195"/>
-      <c r="BH29" s="195"/>
-      <c r="BI29" s="195"/>
-      <c r="BJ29" s="195"/>
-      <c r="BK29" s="195"/>
-      <c r="BL29" s="195"/>
-      <c r="BM29" s="195"/>
-      <c r="BN29" s="195"/>
-      <c r="BO29" s="195"/>
-      <c r="BP29" s="195"/>
-      <c r="BQ29" s="195"/>
-      <c r="BR29" s="195"/>
-      <c r="BS29" s="195"/>
-      <c r="BT29" s="195"/>
-      <c r="BU29" s="195"/>
-      <c r="BV29" s="195"/>
-      <c r="BW29" s="195"/>
-      <c r="BX29" s="195"/>
-      <c r="BY29" s="195"/>
-      <c r="BZ29" s="195"/>
-      <c r="CA29" s="195"/>
-      <c r="CB29" s="195"/>
-      <c r="CC29" s="195"/>
-      <c r="CD29" s="195"/>
-      <c r="CE29" s="195"/>
-      <c r="CF29" s="195"/>
-      <c r="CG29" s="195"/>
-      <c r="CH29" s="195"/>
-      <c r="CI29" s="195"/>
-      <c r="CJ29" s="195"/>
-      <c r="CK29" s="195"/>
-      <c r="CL29" s="195"/>
-      <c r="CM29" s="195"/>
+      <c r="BE29" s="109"/>
+      <c r="BF29" s="109"/>
+      <c r="BG29" s="109"/>
+      <c r="BH29" s="109"/>
+      <c r="BI29" s="109"/>
+      <c r="BJ29" s="109"/>
+      <c r="BK29" s="109"/>
+      <c r="BL29" s="109"/>
+      <c r="BM29" s="109"/>
+      <c r="BN29" s="109"/>
+      <c r="BO29" s="109"/>
+      <c r="BP29" s="109"/>
+      <c r="BQ29" s="109"/>
+      <c r="BR29" s="109"/>
+      <c r="BS29" s="109"/>
+      <c r="BT29" s="109"/>
+      <c r="BU29" s="109"/>
+      <c r="BV29" s="109"/>
+      <c r="BW29" s="109"/>
+      <c r="BX29" s="109"/>
+      <c r="BY29" s="109"/>
+      <c r="BZ29" s="109"/>
+      <c r="CA29" s="109"/>
+      <c r="CB29" s="109"/>
+      <c r="CC29" s="109"/>
+      <c r="CD29" s="109"/>
+      <c r="CE29" s="109"/>
+      <c r="CF29" s="109"/>
+      <c r="CG29" s="109"/>
+      <c r="CH29" s="109"/>
+      <c r="CI29" s="109"/>
+      <c r="CJ29" s="109"/>
+      <c r="CK29" s="109"/>
+      <c r="CL29" s="109"/>
+      <c r="CM29" s="109"/>
     </row>
     <row r="30" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="65"/>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="185"/>
       <c r="E30" s="64" t="s">
         <v>11</v>
       </c>
@@ -37676,49 +37663,49 @@
       <c r="BB30" s="53"/>
       <c r="BC30" s="53"/>
       <c r="BD30" s="53"/>
-      <c r="BE30" s="195"/>
-      <c r="BF30" s="195"/>
-      <c r="BG30" s="195"/>
-      <c r="BH30" s="195"/>
-      <c r="BI30" s="195"/>
-      <c r="BJ30" s="195"/>
-      <c r="BK30" s="195"/>
-      <c r="BL30" s="195"/>
-      <c r="BM30" s="195"/>
-      <c r="BN30" s="195"/>
-      <c r="BO30" s="195"/>
-      <c r="BP30" s="195"/>
-      <c r="BQ30" s="195"/>
-      <c r="BR30" s="195"/>
-      <c r="BS30" s="195"/>
-      <c r="BT30" s="195"/>
-      <c r="BU30" s="195"/>
-      <c r="BV30" s="195"/>
-      <c r="BW30" s="195"/>
-      <c r="BX30" s="195"/>
-      <c r="BY30" s="195"/>
-      <c r="BZ30" s="195"/>
-      <c r="CA30" s="195"/>
-      <c r="CB30" s="195"/>
-      <c r="CC30" s="195"/>
-      <c r="CD30" s="195"/>
-      <c r="CE30" s="195"/>
-      <c r="CF30" s="195"/>
-      <c r="CG30" s="195"/>
-      <c r="CH30" s="195"/>
-      <c r="CI30" s="195"/>
-      <c r="CJ30" s="195"/>
-      <c r="CK30" s="195"/>
-      <c r="CL30" s="195"/>
-      <c r="CM30" s="195"/>
+      <c r="BE30" s="109"/>
+      <c r="BF30" s="109"/>
+      <c r="BG30" s="109"/>
+      <c r="BH30" s="109"/>
+      <c r="BI30" s="109"/>
+      <c r="BJ30" s="109"/>
+      <c r="BK30" s="109"/>
+      <c r="BL30" s="109"/>
+      <c r="BM30" s="109"/>
+      <c r="BN30" s="109"/>
+      <c r="BO30" s="109"/>
+      <c r="BP30" s="109"/>
+      <c r="BQ30" s="109"/>
+      <c r="BR30" s="109"/>
+      <c r="BS30" s="109"/>
+      <c r="BT30" s="109"/>
+      <c r="BU30" s="109"/>
+      <c r="BV30" s="109"/>
+      <c r="BW30" s="109"/>
+      <c r="BX30" s="109"/>
+      <c r="BY30" s="109"/>
+      <c r="BZ30" s="109"/>
+      <c r="CA30" s="109"/>
+      <c r="CB30" s="109"/>
+      <c r="CC30" s="109"/>
+      <c r="CD30" s="109"/>
+      <c r="CE30" s="109"/>
+      <c r="CF30" s="109"/>
+      <c r="CG30" s="109"/>
+      <c r="CH30" s="109"/>
+      <c r="CI30" s="109"/>
+      <c r="CJ30" s="109"/>
+      <c r="CK30" s="109"/>
+      <c r="CL30" s="109"/>
+      <c r="CM30" s="109"/>
     </row>
     <row r="31" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="185"/>
       <c r="E31" s="64" t="s">
         <v>11</v>
       </c>
@@ -37779,51 +37766,51 @@
       <c r="BB31" s="53"/>
       <c r="BC31" s="53"/>
       <c r="BD31" s="53"/>
-      <c r="BE31" s="195"/>
-      <c r="BF31" s="195"/>
-      <c r="BG31" s="195"/>
-      <c r="BH31" s="195"/>
-      <c r="BI31" s="195"/>
-      <c r="BJ31" s="195"/>
-      <c r="BK31" s="195"/>
-      <c r="BL31" s="195"/>
-      <c r="BM31" s="195"/>
-      <c r="BN31" s="195"/>
-      <c r="BO31" s="195"/>
-      <c r="BP31" s="195"/>
-      <c r="BQ31" s="195"/>
-      <c r="BR31" s="195"/>
-      <c r="BS31" s="195"/>
-      <c r="BT31" s="195"/>
-      <c r="BU31" s="195"/>
-      <c r="BV31" s="195"/>
-      <c r="BW31" s="195"/>
-      <c r="BX31" s="195"/>
-      <c r="BY31" s="195"/>
-      <c r="BZ31" s="195"/>
-      <c r="CA31" s="195"/>
-      <c r="CB31" s="195"/>
-      <c r="CC31" s="195"/>
-      <c r="CD31" s="195"/>
-      <c r="CE31" s="195"/>
-      <c r="CF31" s="195"/>
-      <c r="CG31" s="195"/>
-      <c r="CH31" s="195"/>
-      <c r="CI31" s="195"/>
-      <c r="CJ31" s="195"/>
-      <c r="CK31" s="195"/>
-      <c r="CL31" s="195"/>
-      <c r="CM31" s="195"/>
+      <c r="BE31" s="109"/>
+      <c r="BF31" s="109"/>
+      <c r="BG31" s="109"/>
+      <c r="BH31" s="109"/>
+      <c r="BI31" s="109"/>
+      <c r="BJ31" s="109"/>
+      <c r="BK31" s="109"/>
+      <c r="BL31" s="109"/>
+      <c r="BM31" s="109"/>
+      <c r="BN31" s="109"/>
+      <c r="BO31" s="109"/>
+      <c r="BP31" s="109"/>
+      <c r="BQ31" s="109"/>
+      <c r="BR31" s="109"/>
+      <c r="BS31" s="109"/>
+      <c r="BT31" s="109"/>
+      <c r="BU31" s="109"/>
+      <c r="BV31" s="109"/>
+      <c r="BW31" s="109"/>
+      <c r="BX31" s="109"/>
+      <c r="BY31" s="109"/>
+      <c r="BZ31" s="109"/>
+      <c r="CA31" s="109"/>
+      <c r="CB31" s="109"/>
+      <c r="CC31" s="109"/>
+      <c r="CD31" s="109"/>
+      <c r="CE31" s="109"/>
+      <c r="CF31" s="109"/>
+      <c r="CG31" s="109"/>
+      <c r="CH31" s="109"/>
+      <c r="CI31" s="109"/>
+      <c r="CJ31" s="109"/>
+      <c r="CK31" s="109"/>
+      <c r="CL31" s="109"/>
+      <c r="CM31" s="109"/>
     </row>
     <row r="32" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A32" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="64" t="s">
         <v>11</v>
       </c>
@@ -37884,51 +37871,51 @@
       <c r="BB32" s="53"/>
       <c r="BC32" s="53"/>
       <c r="BD32" s="53"/>
-      <c r="BE32" s="195"/>
-      <c r="BF32" s="195"/>
-      <c r="BG32" s="195"/>
-      <c r="BH32" s="195"/>
-      <c r="BI32" s="195"/>
-      <c r="BJ32" s="195"/>
-      <c r="BK32" s="195"/>
-      <c r="BL32" s="195"/>
-      <c r="BM32" s="195"/>
-      <c r="BN32" s="195"/>
-      <c r="BO32" s="195"/>
-      <c r="BP32" s="195"/>
-      <c r="BQ32" s="195"/>
-      <c r="BR32" s="195"/>
-      <c r="BS32" s="195"/>
-      <c r="BT32" s="195"/>
-      <c r="BU32" s="195"/>
-      <c r="BV32" s="195"/>
-      <c r="BW32" s="195"/>
-      <c r="BX32" s="195"/>
-      <c r="BY32" s="195"/>
-      <c r="BZ32" s="195"/>
-      <c r="CA32" s="195"/>
-      <c r="CB32" s="195"/>
-      <c r="CC32" s="195"/>
-      <c r="CD32" s="195"/>
-      <c r="CE32" s="195"/>
-      <c r="CF32" s="195"/>
-      <c r="CG32" s="195"/>
-      <c r="CH32" s="195"/>
-      <c r="CI32" s="195"/>
-      <c r="CJ32" s="195"/>
-      <c r="CK32" s="195"/>
-      <c r="CL32" s="195"/>
-      <c r="CM32" s="195"/>
+      <c r="BE32" s="109"/>
+      <c r="BF32" s="109"/>
+      <c r="BG32" s="109"/>
+      <c r="BH32" s="109"/>
+      <c r="BI32" s="109"/>
+      <c r="BJ32" s="109"/>
+      <c r="BK32" s="109"/>
+      <c r="BL32" s="109"/>
+      <c r="BM32" s="109"/>
+      <c r="BN32" s="109"/>
+      <c r="BO32" s="109"/>
+      <c r="BP32" s="109"/>
+      <c r="BQ32" s="109"/>
+      <c r="BR32" s="109"/>
+      <c r="BS32" s="109"/>
+      <c r="BT32" s="109"/>
+      <c r="BU32" s="109"/>
+      <c r="BV32" s="109"/>
+      <c r="BW32" s="109"/>
+      <c r="BX32" s="109"/>
+      <c r="BY32" s="109"/>
+      <c r="BZ32" s="109"/>
+      <c r="CA32" s="109"/>
+      <c r="CB32" s="109"/>
+      <c r="CC32" s="109"/>
+      <c r="CD32" s="109"/>
+      <c r="CE32" s="109"/>
+      <c r="CF32" s="109"/>
+      <c r="CG32" s="109"/>
+      <c r="CH32" s="109"/>
+      <c r="CI32" s="109"/>
+      <c r="CJ32" s="109"/>
+      <c r="CK32" s="109"/>
+      <c r="CL32" s="109"/>
+      <c r="CM32" s="109"/>
     </row>
     <row r="33" spans="1:91" ht="12.75" customHeight="1">
       <c r="A33" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="146" t="s">
+      <c r="B33" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="63" t="s">
         <v>48</v>
       </c>
@@ -37997,51 +37984,51 @@
       <c r="AX33" s="57"/>
       <c r="AY33" s="57"/>
       <c r="AZ33" s="57"/>
-      <c r="BE33" s="195"/>
-      <c r="BF33" s="195"/>
-      <c r="BG33" s="195"/>
-      <c r="BH33" s="195"/>
-      <c r="BI33" s="195"/>
-      <c r="BJ33" s="195"/>
-      <c r="BK33" s="195"/>
-      <c r="BL33" s="195"/>
-      <c r="BM33" s="195"/>
-      <c r="BN33" s="195"/>
-      <c r="BO33" s="195"/>
-      <c r="BP33" s="195"/>
-      <c r="BQ33" s="195"/>
-      <c r="BR33" s="195"/>
-      <c r="BS33" s="195"/>
-      <c r="BT33" s="195"/>
-      <c r="BU33" s="195"/>
-      <c r="BV33" s="195"/>
-      <c r="BW33" s="195"/>
-      <c r="BX33" s="195"/>
-      <c r="BY33" s="195"/>
-      <c r="BZ33" s="195"/>
-      <c r="CA33" s="195"/>
-      <c r="CB33" s="195"/>
-      <c r="CC33" s="195"/>
-      <c r="CD33" s="195"/>
-      <c r="CE33" s="195"/>
-      <c r="CF33" s="195"/>
-      <c r="CG33" s="195"/>
-      <c r="CH33" s="195"/>
-      <c r="CI33" s="195"/>
-      <c r="CJ33" s="195"/>
-      <c r="CK33" s="195"/>
-      <c r="CL33" s="195"/>
-      <c r="CM33" s="195"/>
+      <c r="BE33" s="109"/>
+      <c r="BF33" s="109"/>
+      <c r="BG33" s="109"/>
+      <c r="BH33" s="109"/>
+      <c r="BI33" s="109"/>
+      <c r="BJ33" s="109"/>
+      <c r="BK33" s="109"/>
+      <c r="BL33" s="109"/>
+      <c r="BM33" s="109"/>
+      <c r="BN33" s="109"/>
+      <c r="BO33" s="109"/>
+      <c r="BP33" s="109"/>
+      <c r="BQ33" s="109"/>
+      <c r="BR33" s="109"/>
+      <c r="BS33" s="109"/>
+      <c r="BT33" s="109"/>
+      <c r="BU33" s="109"/>
+      <c r="BV33" s="109"/>
+      <c r="BW33" s="109"/>
+      <c r="BX33" s="109"/>
+      <c r="BY33" s="109"/>
+      <c r="BZ33" s="109"/>
+      <c r="CA33" s="109"/>
+      <c r="CB33" s="109"/>
+      <c r="CC33" s="109"/>
+      <c r="CD33" s="109"/>
+      <c r="CE33" s="109"/>
+      <c r="CF33" s="109"/>
+      <c r="CG33" s="109"/>
+      <c r="CH33" s="109"/>
+      <c r="CI33" s="109"/>
+      <c r="CJ33" s="109"/>
+      <c r="CK33" s="109"/>
+      <c r="CL33" s="109"/>
+      <c r="CM33" s="109"/>
     </row>
     <row r="34" spans="1:91" ht="12.75" customHeight="1">
       <c r="A34" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="63" t="s">
         <v>48</v>
       </c>
@@ -38110,51 +38097,51 @@
       <c r="AX34" s="57"/>
       <c r="AY34" s="57"/>
       <c r="AZ34" s="57"/>
-      <c r="BE34" s="195"/>
-      <c r="BF34" s="195"/>
-      <c r="BG34" s="195"/>
-      <c r="BH34" s="195"/>
-      <c r="BI34" s="195"/>
-      <c r="BJ34" s="195"/>
-      <c r="BK34" s="195"/>
-      <c r="BL34" s="195"/>
-      <c r="BM34" s="195"/>
-      <c r="BN34" s="195"/>
-      <c r="BO34" s="195"/>
-      <c r="BP34" s="195"/>
-      <c r="BQ34" s="195"/>
-      <c r="BR34" s="195"/>
-      <c r="BS34" s="195"/>
-      <c r="BT34" s="195"/>
-      <c r="BU34" s="195"/>
-      <c r="BV34" s="195"/>
-      <c r="BW34" s="195"/>
-      <c r="BX34" s="195"/>
-      <c r="BY34" s="195"/>
-      <c r="BZ34" s="195"/>
-      <c r="CA34" s="195"/>
-      <c r="CB34" s="195"/>
-      <c r="CC34" s="195"/>
-      <c r="CD34" s="195"/>
-      <c r="CE34" s="195"/>
-      <c r="CF34" s="195"/>
-      <c r="CG34" s="195"/>
-      <c r="CH34" s="195"/>
-      <c r="CI34" s="195"/>
-      <c r="CJ34" s="195"/>
-      <c r="CK34" s="195"/>
-      <c r="CL34" s="195"/>
-      <c r="CM34" s="195"/>
+      <c r="BE34" s="109"/>
+      <c r="BF34" s="109"/>
+      <c r="BG34" s="109"/>
+      <c r="BH34" s="109"/>
+      <c r="BI34" s="109"/>
+      <c r="BJ34" s="109"/>
+      <c r="BK34" s="109"/>
+      <c r="BL34" s="109"/>
+      <c r="BM34" s="109"/>
+      <c r="BN34" s="109"/>
+      <c r="BO34" s="109"/>
+      <c r="BP34" s="109"/>
+      <c r="BQ34" s="109"/>
+      <c r="BR34" s="109"/>
+      <c r="BS34" s="109"/>
+      <c r="BT34" s="109"/>
+      <c r="BU34" s="109"/>
+      <c r="BV34" s="109"/>
+      <c r="BW34" s="109"/>
+      <c r="BX34" s="109"/>
+      <c r="BY34" s="109"/>
+      <c r="BZ34" s="109"/>
+      <c r="CA34" s="109"/>
+      <c r="CB34" s="109"/>
+      <c r="CC34" s="109"/>
+      <c r="CD34" s="109"/>
+      <c r="CE34" s="109"/>
+      <c r="CF34" s="109"/>
+      <c r="CG34" s="109"/>
+      <c r="CH34" s="109"/>
+      <c r="CI34" s="109"/>
+      <c r="CJ34" s="109"/>
+      <c r="CK34" s="109"/>
+      <c r="CL34" s="109"/>
+      <c r="CM34" s="109"/>
     </row>
     <row r="35" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="145"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="171"/>
       <c r="E35" s="97" t="s">
         <v>10</v>
       </c>
@@ -38211,49 +38198,49 @@
       <c r="AX35" s="98"/>
       <c r="AY35" s="98"/>
       <c r="AZ35" s="98"/>
-      <c r="BE35" s="195"/>
-      <c r="BF35" s="195"/>
-      <c r="BG35" s="195"/>
-      <c r="BH35" s="195"/>
-      <c r="BI35" s="195"/>
-      <c r="BJ35" s="195"/>
-      <c r="BK35" s="195"/>
-      <c r="BL35" s="195"/>
-      <c r="BM35" s="195"/>
-      <c r="BN35" s="195"/>
-      <c r="BO35" s="195"/>
-      <c r="BP35" s="195"/>
-      <c r="BQ35" s="195"/>
-      <c r="BR35" s="195"/>
-      <c r="BS35" s="195"/>
-      <c r="BT35" s="195"/>
-      <c r="BU35" s="195"/>
-      <c r="BV35" s="195"/>
-      <c r="BW35" s="195"/>
-      <c r="BX35" s="195"/>
-      <c r="BY35" s="195"/>
-      <c r="BZ35" s="195"/>
-      <c r="CA35" s="195"/>
-      <c r="CB35" s="195"/>
-      <c r="CC35" s="195"/>
-      <c r="CD35" s="195"/>
-      <c r="CE35" s="195"/>
-      <c r="CF35" s="195"/>
-      <c r="CG35" s="195"/>
-      <c r="CH35" s="195"/>
-      <c r="CI35" s="195"/>
-      <c r="CJ35" s="195"/>
-      <c r="CK35" s="195"/>
-      <c r="CL35" s="195"/>
-      <c r="CM35" s="195"/>
+      <c r="BE35" s="109"/>
+      <c r="BF35" s="109"/>
+      <c r="BG35" s="109"/>
+      <c r="BH35" s="109"/>
+      <c r="BI35" s="109"/>
+      <c r="BJ35" s="109"/>
+      <c r="BK35" s="109"/>
+      <c r="BL35" s="109"/>
+      <c r="BM35" s="109"/>
+      <c r="BN35" s="109"/>
+      <c r="BO35" s="109"/>
+      <c r="BP35" s="109"/>
+      <c r="BQ35" s="109"/>
+      <c r="BR35" s="109"/>
+      <c r="BS35" s="109"/>
+      <c r="BT35" s="109"/>
+      <c r="BU35" s="109"/>
+      <c r="BV35" s="109"/>
+      <c r="BW35" s="109"/>
+      <c r="BX35" s="109"/>
+      <c r="BY35" s="109"/>
+      <c r="BZ35" s="109"/>
+      <c r="CA35" s="109"/>
+      <c r="CB35" s="109"/>
+      <c r="CC35" s="109"/>
+      <c r="CD35" s="109"/>
+      <c r="CE35" s="109"/>
+      <c r="CF35" s="109"/>
+      <c r="CG35" s="109"/>
+      <c r="CH35" s="109"/>
+      <c r="CI35" s="109"/>
+      <c r="CJ35" s="109"/>
+      <c r="CK35" s="109"/>
+      <c r="CL35" s="109"/>
+      <c r="CM35" s="109"/>
     </row>
     <row r="36" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A36" s="166"/>
-      <c r="B36" s="143" t="s">
+      <c r="A36" s="176"/>
+      <c r="B36" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="145"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="171"/>
       <c r="E36" s="97" t="s">
         <v>10</v>
       </c>
@@ -38312,12 +38299,12 @@
       <c r="AZ36" s="98"/>
     </row>
     <row r="37" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A37" s="166"/>
-      <c r="B37" s="143" t="s">
+      <c r="A37" s="176"/>
+      <c r="B37" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="145"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="171"/>
       <c r="E37" s="97" t="s">
         <v>47</v>
       </c>
@@ -38382,12 +38369,12 @@
       <c r="AZ37" s="98"/>
     </row>
     <row r="38" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A38" s="166"/>
-      <c r="B38" s="143" t="s">
+      <c r="A38" s="176"/>
+      <c r="B38" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="145"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="97" t="s">
         <v>68</v>
       </c>
@@ -38446,12 +38433,12 @@
       <c r="AZ38" s="98"/>
     </row>
     <row r="39" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A39" s="166"/>
-      <c r="B39" s="143" t="s">
+      <c r="A39" s="176"/>
+      <c r="B39" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="145"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="171"/>
       <c r="E39" s="97" t="s">
         <v>68</v>
       </c>
@@ -38459,7 +38446,7 @@
         <v>70</v>
       </c>
       <c r="G39" s="103" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H39" s="98"/>
       <c r="I39" s="98"/>
@@ -38511,11 +38498,11 @@
     </row>
     <row r="40" spans="1:91" ht="12.75" customHeight="1">
       <c r="A40" s="104"/>
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="164"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="97" t="s">
         <v>47</v>
       </c>
@@ -38577,11 +38564,11 @@
     </row>
     <row r="41" spans="1:91" ht="12.75" customHeight="1">
       <c r="A41" s="104"/>
-      <c r="B41" s="162" t="s">
+      <c r="B41" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="164"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="97" t="s">
         <v>47</v>
       </c>
@@ -38643,11 +38630,11 @@
     </row>
     <row r="42" spans="1:91" ht="12.75" customHeight="1">
       <c r="A42" s="104"/>
-      <c r="B42" s="162" t="s">
+      <c r="B42" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="164"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="97" t="s">
         <v>47</v>
       </c>
@@ -38711,11 +38698,11 @@
       <c r="A43" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="164"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="97" t="s">
         <v>11</v>
       </c>
@@ -38775,11 +38762,11 @@
     </row>
     <row r="44" spans="1:91" ht="12.75" customHeight="1">
       <c r="A44" s="105"/>
-      <c r="B44" s="162" t="s">
+      <c r="B44" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="164"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="97" t="s">
         <v>11</v>
       </c>
@@ -38839,11 +38826,11 @@
     </row>
     <row r="45" spans="1:91" ht="12.75" customHeight="1">
       <c r="A45" s="105"/>
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="144"/>
-      <c r="D45" s="145"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="171"/>
       <c r="E45" s="97" t="s">
         <v>11</v>
       </c>
@@ -38905,11 +38892,11 @@
       <c r="A46" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="146" t="s">
+      <c r="B46" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="147"/>
-      <c r="D46" s="148"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="63" t="s">
         <v>48</v>
       </c>
@@ -38977,11 +38964,11 @@
       <c r="A47" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="146" t="s">
+      <c r="B47" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="147"/>
-      <c r="D47" s="148"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="63" t="s">
         <v>48</v>
       </c>
@@ -39049,11 +39036,11 @@
       <c r="A48" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="147"/>
-      <c r="D48" s="148"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="63" t="s">
         <v>48</v>
       </c>
@@ -39121,11 +39108,11 @@
       <c r="A49" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="146" t="s">
+      <c r="B49" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="147"/>
-      <c r="D49" s="148"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="63" t="s">
         <v>48</v>
       </c>
@@ -39191,9 +39178,9 @@
     </row>
     <row r="50" spans="1:52" ht="12.75" customHeight="1">
       <c r="A50" s="54"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="142"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="154"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
@@ -39245,9 +39232,9 @@
     </row>
     <row r="51" spans="1:52" ht="12.75" customHeight="1">
       <c r="A51" s="54"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="153"/>
+      <c r="B51" s="196"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="197"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -39299,9 +39286,9 @@
     </row>
     <row r="52" spans="1:52" ht="12.75" customHeight="1">
       <c r="A52" s="54"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="153"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="197"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
@@ -39353,9 +39340,9 @@
     </row>
     <row r="53" spans="1:52" ht="12.75" customHeight="1">
       <c r="A53" s="54"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="142"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="154"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
@@ -39407,9 +39394,9 @@
     </row>
     <row r="54" spans="1:52" ht="12.75" customHeight="1">
       <c r="A54" s="54"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="142"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="154"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -39461,9 +39448,9 @@
     </row>
     <row r="55" spans="1:52" s="39" customFormat="1" ht="12.75" customHeight="1">
       <c r="A55" s="54"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="142"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="154"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
@@ -39515,9 +39502,9 @@
     </row>
     <row r="56" spans="1:52" ht="12.75" customHeight="1">
       <c r="A56" s="54"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="142"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="154"/>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
@@ -39569,9 +39556,9 @@
     </row>
     <row r="57" spans="1:52" ht="12.75" customHeight="1">
       <c r="A57" s="54"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="142"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="154"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -39623,9 +39610,9 @@
     </row>
     <row r="58" spans="1:52" ht="12.75" customHeight="1">
       <c r="A58" s="54"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="142"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="154"/>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -39670,9 +39657,9 @@
     </row>
     <row r="59" spans="1:52" ht="12.75" customHeight="1">
       <c r="A59" s="54"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="179"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -39717,9 +39704,9 @@
     </row>
     <row r="60" spans="1:52" ht="12.75" customHeight="1">
       <c r="A60" s="54"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="178"/>
-      <c r="D60" s="179"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="151"/>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
@@ -39764,9 +39751,9 @@
     </row>
     <row r="61" spans="1:52" ht="12.75" customHeight="1">
       <c r="A61" s="54"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="179"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="151"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
@@ -39811,9 +39798,9 @@
     </row>
     <row r="62" spans="1:52" ht="12.75" customHeight="1">
       <c r="A62" s="54"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="178"/>
-      <c r="D62" s="179"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="151"/>
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
@@ -39858,9 +39845,9 @@
     </row>
     <row r="63" spans="1:52" ht="12.75" customHeight="1">
       <c r="A63" s="54"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="178"/>
-      <c r="D63" s="179"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="151"/>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -39905,9 +39892,9 @@
     </row>
     <row r="64" spans="1:52" ht="12.75" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="177"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="179"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="151"/>
       <c r="E64" s="27"/>
       <c r="F64" s="54"/>
       <c r="G64" s="27"/>
@@ -39952,9 +39939,9 @@
     </row>
     <row r="65" spans="1:45" ht="12.75" customHeight="1">
       <c r="A65" s="27"/>
-      <c r="B65" s="177"/>
-      <c r="C65" s="178"/>
-      <c r="D65" s="179"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="151"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -39999,9 +39986,9 @@
     </row>
     <row r="66" spans="1:45" ht="12.75" customHeight="1">
       <c r="A66" s="27"/>
-      <c r="B66" s="180"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="182"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="148"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -40046,9 +40033,9 @@
     </row>
     <row r="67" spans="1:45" ht="12.75" customHeight="1">
       <c r="A67" s="27"/>
-      <c r="B67" s="180"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="182"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="148"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -40093,9 +40080,9 @@
     </row>
     <row r="68" spans="1:45" ht="12.75" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="180"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="182"/>
+      <c r="B68" s="146"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="148"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
@@ -40140,9 +40127,9 @@
     </row>
     <row r="69" spans="1:45" ht="12.75" customHeight="1">
       <c r="A69" s="27"/>
-      <c r="B69" s="180"/>
-      <c r="C69" s="181"/>
-      <c r="D69" s="182"/>
+      <c r="B69" s="146"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="148"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
@@ -40187,9 +40174,9 @@
     </row>
     <row r="70" spans="1:45" ht="12.75" customHeight="1">
       <c r="A70" s="27"/>
-      <c r="B70" s="180"/>
-      <c r="C70" s="181"/>
-      <c r="D70" s="182"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="148"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -40234,9 +40221,9 @@
     </row>
     <row r="71" spans="1:45" ht="12.75" customHeight="1">
       <c r="A71" s="27"/>
-      <c r="B71" s="180"/>
-      <c r="C71" s="181"/>
-      <c r="D71" s="182"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="148"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
@@ -40281,9 +40268,9 @@
     </row>
     <row r="72" spans="1:45" ht="12.75" customHeight="1">
       <c r="A72" s="27"/>
-      <c r="B72" s="180"/>
-      <c r="C72" s="181"/>
-      <c r="D72" s="182"/>
+      <c r="B72" s="146"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="148"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
@@ -40328,9 +40315,9 @@
     </row>
     <row r="73" spans="1:45" ht="12.75" customHeight="1">
       <c r="A73" s="27"/>
-      <c r="B73" s="180"/>
-      <c r="C73" s="181"/>
-      <c r="D73" s="182"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="148"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -49194,44 +49181,21 @@
     <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:AS12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B22:D22"/>
@@ -49248,124 +49212,147 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:AS12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
   </mergeCells>
   <conditionalFormatting sqref="F998:F1003">
-    <cfRule type="cellIs" dxfId="81" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="161" operator="equal">
       <formula>$BB$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F998:F1003">
-    <cfRule type="cellIs" dxfId="80" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="162" operator="equal">
       <formula>$BB$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F1003">
-    <cfRule type="cellIs" dxfId="79" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="163" operator="equal">
       <formula>$BB$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:X7 AA7:AS7">
-    <cfRule type="cellIs" dxfId="78" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="164" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:X7 AA7:AS7">
-    <cfRule type="cellIs" dxfId="77" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="165" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F1003 F13:F18">
-    <cfRule type="cellIs" dxfId="76" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="166" operator="equal">
       <formula>$BB$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F1003 F13:F18">
-    <cfRule type="cellIs" dxfId="75" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="167" operator="equal">
       <formula>$BB$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F18">
-    <cfRule type="cellIs" dxfId="74" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="168" operator="equal">
       <formula>$BB$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F29">
-    <cfRule type="cellIs" dxfId="73" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="169" operator="equal">
       <formula>$BB$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F29">
-    <cfRule type="cellIs" dxfId="72" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="170" operator="equal">
       <formula>$BB$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F29">
-    <cfRule type="cellIs" dxfId="71" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="171" operator="equal">
       <formula>$BB$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="70" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="175" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="69" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="176" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="68" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="177" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="67" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="178" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="66" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="119" operator="equal">
       <formula>$BB$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="65" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="120" operator="equal">
       <formula>$BB$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="64" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="121" operator="equal">
       <formula>$BB$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="63" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="116" operator="equal">
       <formula>$BB$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="62" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="117" operator="equal">
       <formula>$BB$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="61" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="118" operator="equal">
       <formula>$BB$11</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49683,7 +49670,7 @@
   </sheetPr>
   <dimension ref="A1:AT999"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="AD69" sqref="AD69"/>
     </sheetView>
   </sheetViews>
@@ -49723,121 +49710,121 @@
       <c r="E1" s="31"/>
     </row>
     <row r="2" spans="2:23" ht="12.75" customHeight="1">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="184"/>
-      <c r="R2" s="187" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="199"/>
+      <c r="R2" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190" t="s">
+      <c r="S2" s="205"/>
+      <c r="T2" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="189"/>
-      <c r="V2" s="191" t="s">
+      <c r="U2" s="205"/>
+      <c r="V2" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="184"/>
+      <c r="W2" s="199"/>
     </row>
     <row r="3" spans="2:23" ht="12.75" customHeight="1">
-      <c r="B3" s="183" t="str">
+      <c r="B3" s="198" t="str">
         <f>Config!A6</f>
         <v xml:space="preserve">Sistema de Gestión de Productos y Control de Inventario de un Micromercado </v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="184"/>
-      <c r="R3" s="183">
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="199"/>
+      <c r="R3" s="198">
         <f>Config!A9</f>
         <v>1</v>
       </c>
-      <c r="S3" s="184"/>
-      <c r="T3" s="185">
+      <c r="S3" s="199"/>
+      <c r="T3" s="200">
         <f>Config!B9</f>
         <v>44393</v>
       </c>
-      <c r="U3" s="184"/>
-      <c r="V3" s="186">
+      <c r="U3" s="199"/>
+      <c r="V3" s="202">
         <f>Config!C9</f>
         <v>7</v>
       </c>
-      <c r="W3" s="184"/>
+      <c r="W3" s="199"/>
     </row>
     <row r="4" spans="2:23" s="39" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B4" s="203"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="R4" s="183">
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="R4" s="198">
         <v>2</v>
       </c>
-      <c r="S4" s="184"/>
-      <c r="T4" s="185">
+      <c r="S4" s="199"/>
+      <c r="T4" s="200">
         <f>Config!B10</f>
         <v>44414</v>
       </c>
-      <c r="U4" s="205"/>
-      <c r="V4" s="186">
+      <c r="U4" s="201"/>
+      <c r="V4" s="202">
         <f>Config!C9</f>
         <v>7</v>
       </c>
-      <c r="W4" s="184"/>
+      <c r="W4" s="199"/>
     </row>
     <row r="5" spans="2:23" ht="12.75" customHeight="1">
       <c r="C5" s="24"/>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
-      <c r="R5" s="183">
+      <c r="R5" s="198">
         <f>Config!A11</f>
         <v>3</v>
       </c>
-      <c r="S5" s="184"/>
-      <c r="T5" s="185">
+      <c r="S5" s="199"/>
+      <c r="T5" s="200">
         <f>Config!B11</f>
         <v>44428</v>
       </c>
-      <c r="U5" s="205"/>
-      <c r="V5" s="186">
+      <c r="U5" s="201"/>
+      <c r="V5" s="202">
         <f>Config!C10</f>
         <v>7</v>
       </c>
-      <c r="W5" s="184"/>
+      <c r="W5" s="199"/>
     </row>
     <row r="6" spans="2:23" ht="12.75" customHeight="1">
       <c r="C6" s="24"/>
@@ -50647,11 +50634,11 @@
       </c>
       <c r="E62" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A62,Datos!K$13:K$999)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A62,Datos!L$13:L$999)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A62,Datos!M$13:M$999)</f>
@@ -50758,7 +50745,7 @@
       </c>
       <c r="AH62" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A62,Datos!AF$13:AP$999)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI62" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A62,Datos!AG$13:AQ$999)</f>
@@ -50828,11 +50815,11 @@
       </c>
       <c r="E63" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A63,Datos!K$13:K$999)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A63,Datos!L$13:L$999)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A63,Datos!M$13:M$999)</f>
@@ -50935,7 +50922,7 @@
       </c>
       <c r="AH63" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A63,Datos!AF$13:AP$999)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="35">
         <f>SUMIF(Datos!$G$13:$G$999,$A63,Datos!AG$13:AQ$999)</f>

--- a/Documentacion_G9/PREGAME/1.ELICITACIÓN/1.6 Backlog/G9_Backlog-3Sprint2.xlsx
+++ b/Documentacion_G9/PREGAME/1.ELICITACIÓN/1.6 Backlog/G9_Backlog-3Sprint2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\OneDrive\Documentos\G9_3594_MET_DES_SW_202150\Documentacion_G9\PREGAME\1.ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AEE8A8-3A12-4991-80B3-842FB5CD0A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FE4B0B-4AE1-4B3C-821E-E57923041719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="675" windowWidth="25920" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="675" windowWidth="25920" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
@@ -1477,12 +1477,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,6 +1499,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,93 +1599,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -34648,11 +34648,11 @@
   </sheetPr>
   <dimension ref="A1:CM1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="12" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -35122,11 +35122,11 @@
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
       <c r="H9" s="80">
         <f>COUNTIF(H13:H1000,"&gt;0")</f>
         <v>6</v>
@@ -35301,7 +35301,7 @@
       </c>
       <c r="AY9" s="80">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="80">
         <f t="shared" si="9"/>
@@ -35360,11 +35360,11 @@
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
       <c r="D10" s="79"/>
-      <c r="E10" s="158" t="s">
+      <c r="E10" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="159"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="182"/>
       <c r="H10" s="81">
         <f>SUM(H13:H100)</f>
         <v>7</v>
@@ -35539,7 +35539,7 @@
       </c>
       <c r="AY10" s="81">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="81">
         <f t="shared" si="11"/>
@@ -35595,55 +35595,55 @@
       <c r="CM10" s="109"/>
     </row>
     <row r="11" spans="1:91" s="91" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="163" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="164"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="164"/>
-      <c r="AH11" s="164"/>
-      <c r="AI11" s="164"/>
-      <c r="AJ11" s="164"/>
-      <c r="AK11" s="164"/>
-      <c r="AL11" s="164"/>
-      <c r="AM11" s="164"/>
-      <c r="AN11" s="164"/>
-      <c r="AO11" s="164"/>
-      <c r="AP11" s="164"/>
-      <c r="AQ11" s="164"/>
-      <c r="AR11" s="164"/>
-      <c r="AS11" s="164"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
+      <c r="AI11" s="187"/>
+      <c r="AJ11" s="187"/>
+      <c r="AK11" s="187"/>
+      <c r="AL11" s="187"/>
+      <c r="AM11" s="187"/>
+      <c r="AN11" s="187"/>
+      <c r="AO11" s="187"/>
+      <c r="AP11" s="187"/>
+      <c r="AQ11" s="187"/>
+      <c r="AR11" s="187"/>
+      <c r="AS11" s="187"/>
       <c r="AT11" s="96"/>
       <c r="AU11" s="96"/>
       <c r="AV11" s="96"/>
@@ -35695,11 +35695,11 @@
       <c r="A12" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
       <c r="E12" s="89" t="s">
         <v>25</v>
       </c>
@@ -35709,44 +35709,44 @@
       <c r="G12" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="166"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="166"/>
-      <c r="AF12" s="166"/>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="166"/>
-      <c r="AL12" s="166"/>
-      <c r="AM12" s="166"/>
-      <c r="AN12" s="166"/>
-      <c r="AO12" s="166"/>
-      <c r="AP12" s="166"/>
-      <c r="AQ12" s="166"/>
-      <c r="AR12" s="166"/>
-      <c r="AS12" s="166"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="189"/>
+      <c r="AJ12" s="189"/>
+      <c r="AK12" s="189"/>
+      <c r="AL12" s="189"/>
+      <c r="AM12" s="189"/>
+      <c r="AN12" s="189"/>
+      <c r="AO12" s="189"/>
+      <c r="AP12" s="189"/>
+      <c r="AQ12" s="189"/>
+      <c r="AR12" s="189"/>
+      <c r="AS12" s="189"/>
       <c r="AT12" s="106"/>
       <c r="AU12" s="106"/>
       <c r="AV12" s="106"/>
@@ -35795,14 +35795,14 @@
       <c r="CM12" s="120"/>
     </row>
     <row r="13" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="190"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="172"/>
       <c r="E13" s="60" t="s">
         <v>10</v>
       </c>
@@ -35909,12 +35909,12 @@
       <c r="CM13" s="109"/>
     </row>
     <row r="14" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="187"/>
-      <c r="B14" s="188" t="s">
+      <c r="A14" s="169"/>
+      <c r="B14" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="60" t="s">
         <v>10</v>
       </c>
@@ -36021,12 +36021,12 @@
       <c r="CM14" s="109"/>
     </row>
     <row r="15" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="187"/>
-      <c r="B15" s="188" t="s">
+      <c r="A15" s="169"/>
+      <c r="B15" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
       <c r="E15" s="60" t="s">
         <v>47</v>
       </c>
@@ -36133,12 +36133,12 @@
       <c r="CM15" s="109"/>
     </row>
     <row r="16" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="187"/>
-      <c r="B16" s="188" t="s">
+      <c r="A16" s="169"/>
+      <c r="B16" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="60" t="s">
         <v>68</v>
       </c>
@@ -36233,12 +36233,12 @@
       <c r="CM16" s="109"/>
     </row>
     <row r="17" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="187"/>
-      <c r="B17" s="188" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="60" t="s">
         <v>68</v>
       </c>
@@ -36336,11 +36336,11 @@
     </row>
     <row r="18" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="61"/>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="192"/>
-      <c r="D18" s="193"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="60" t="s">
         <v>47</v>
       </c>
@@ -36440,11 +36440,11 @@
     </row>
     <row r="19" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="61"/>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="60" t="s">
         <v>11</v>
       </c>
@@ -36540,11 +36540,11 @@
     </row>
     <row r="20" spans="1:91" s="53" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="61"/>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="193"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="60" t="s">
         <v>11</v>
       </c>
@@ -36641,11 +36641,11 @@
       <c r="A21" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="189"/>
-      <c r="D21" s="190"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
       <c r="E21" s="60" t="s">
         <v>11</v>
       </c>
@@ -36742,11 +36742,11 @@
       <c r="A22" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
       <c r="E22" s="63" t="s">
         <v>48</v>
       </c>
@@ -36855,11 +36855,11 @@
       <c r="A23" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
       <c r="E23" s="63" t="s">
         <v>48</v>
       </c>
@@ -36965,14 +36965,14 @@
       <c r="CM23" s="109"/>
     </row>
     <row r="24" spans="1:91" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A24" s="194" t="s">
+      <c r="A24" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="64" t="s">
         <v>10</v>
       </c>
@@ -37070,12 +37070,12 @@
       <c r="CM24" s="109"/>
     </row>
     <row r="25" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="195"/>
-      <c r="B25" s="177" t="s">
+      <c r="A25" s="150"/>
+      <c r="B25" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="179"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="64" t="s">
         <v>10</v>
       </c>
@@ -37173,12 +37173,12 @@
       <c r="CM25" s="109"/>
     </row>
     <row r="26" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="195"/>
-      <c r="B26" s="177" t="s">
+      <c r="A26" s="150"/>
+      <c r="B26" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="64" t="s">
         <v>47</v>
       </c>
@@ -37282,12 +37282,12 @@
       <c r="CM26" s="109"/>
     </row>
     <row r="27" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="195"/>
-      <c r="B27" s="177" t="s">
+      <c r="A27" s="150"/>
+      <c r="B27" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="64" t="s">
         <v>68</v>
       </c>
@@ -37385,12 +37385,12 @@
       <c r="CM27" s="109"/>
     </row>
     <row r="28" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="195"/>
-      <c r="B28" s="177" t="s">
+      <c r="A28" s="150"/>
+      <c r="B28" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="179"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="64" t="s">
         <v>68</v>
       </c>
@@ -37489,11 +37489,11 @@
     </row>
     <row r="29" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A29" s="65"/>
-      <c r="B29" s="183" t="s">
+      <c r="B29" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="184"/>
-      <c r="D29" s="185"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="162"/>
       <c r="E29" s="64" t="s">
         <v>47</v>
       </c>
@@ -37598,11 +37598,11 @@
     </row>
     <row r="30" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="65"/>
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="185"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="162"/>
       <c r="E30" s="64" t="s">
         <v>11</v>
       </c>
@@ -37701,11 +37701,11 @@
     </row>
     <row r="31" spans="1:91" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="A31" s="65"/>
-      <c r="B31" s="183" t="s">
+      <c r="B31" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="184"/>
-      <c r="D31" s="185"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="64" t="s">
         <v>11</v>
       </c>
@@ -37806,11 +37806,11 @@
       <c r="A32" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
       <c r="E32" s="64" t="s">
         <v>11</v>
       </c>
@@ -37911,11 +37911,11 @@
       <c r="A33" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="181"/>
-      <c r="D33" s="182"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
       <c r="E33" s="63" t="s">
         <v>48</v>
       </c>
@@ -38024,11 +38024,11 @@
       <c r="A34" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="182"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="159"/>
       <c r="E34" s="63" t="s">
         <v>48</v>
       </c>
@@ -38134,14 +38134,14 @@
       <c r="CM34" s="109"/>
     </row>
     <row r="35" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="171"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="156"/>
       <c r="E35" s="97" t="s">
         <v>10</v>
       </c>
@@ -38235,12 +38235,12 @@
       <c r="CM35" s="109"/>
     </row>
     <row r="36" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A36" s="176"/>
-      <c r="B36" s="169" t="s">
+      <c r="A36" s="177"/>
+      <c r="B36" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="171"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="156"/>
       <c r="E36" s="97" t="s">
         <v>10</v>
       </c>
@@ -38299,12 +38299,12 @@
       <c r="AZ36" s="98"/>
     </row>
     <row r="37" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A37" s="176"/>
-      <c r="B37" s="169" t="s">
+      <c r="A37" s="177"/>
+      <c r="B37" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="170"/>
-      <c r="D37" s="171"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="156"/>
       <c r="E37" s="97" t="s">
         <v>47</v>
       </c>
@@ -38369,12 +38369,12 @@
       <c r="AZ37" s="98"/>
     </row>
     <row r="38" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A38" s="176"/>
-      <c r="B38" s="169" t="s">
+      <c r="A38" s="177"/>
+      <c r="B38" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="171"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="156"/>
       <c r="E38" s="97" t="s">
         <v>68</v>
       </c>
@@ -38433,12 +38433,12 @@
       <c r="AZ38" s="98"/>
     </row>
     <row r="39" spans="1:91" ht="12.75" customHeight="1">
-      <c r="A39" s="176"/>
-      <c r="B39" s="169" t="s">
+      <c r="A39" s="177"/>
+      <c r="B39" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="170"/>
-      <c r="D39" s="171"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="156"/>
       <c r="E39" s="97" t="s">
         <v>68</v>
       </c>
@@ -38493,16 +38493,18 @@
       <c r="AV39" s="98"/>
       <c r="AW39" s="98"/>
       <c r="AX39" s="98"/>
-      <c r="AY39" s="98"/>
+      <c r="AY39" s="98">
+        <v>1</v>
+      </c>
       <c r="AZ39" s="98"/>
     </row>
     <row r="40" spans="1:91" ht="12.75" customHeight="1">
       <c r="A40" s="104"/>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="173"/>
-      <c r="D40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="175"/>
       <c r="E40" s="97" t="s">
         <v>47</v>
       </c>
@@ -38564,11 +38566,11 @@
     </row>
     <row r="41" spans="1:91" ht="12.75" customHeight="1">
       <c r="A41" s="104"/>
-      <c r="B41" s="172" t="s">
+      <c r="B41" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="173"/>
-      <c r="D41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="175"/>
       <c r="E41" s="97" t="s">
         <v>47</v>
       </c>
@@ -38630,11 +38632,11 @@
     </row>
     <row r="42" spans="1:91" ht="12.75" customHeight="1">
       <c r="A42" s="104"/>
-      <c r="B42" s="172" t="s">
+      <c r="B42" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="173"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="97" t="s">
         <v>47</v>
       </c>
@@ -38698,11 +38700,11 @@
       <c r="A43" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="173"/>
-      <c r="D43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="97" t="s">
         <v>11</v>
       </c>
@@ -38762,11 +38764,11 @@
     </row>
     <row r="44" spans="1:91" ht="12.75" customHeight="1">
       <c r="A44" s="105"/>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="173"/>
-      <c r="D44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="175"/>
       <c r="E44" s="97" t="s">
         <v>11</v>
       </c>
@@ -38826,11 +38828,11 @@
     </row>
     <row r="45" spans="1:91" ht="12.75" customHeight="1">
       <c r="A45" s="105"/>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="170"/>
-      <c r="D45" s="171"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="156"/>
       <c r="E45" s="97" t="s">
         <v>11</v>
       </c>
@@ -38892,11 +38894,11 @@
       <c r="A46" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="180" t="s">
+      <c r="B46" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="182"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="159"/>
       <c r="E46" s="63" t="s">
         <v>48</v>
       </c>
@@ -38964,11 +38966,11 @@
       <c r="A47" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="181"/>
-      <c r="D47" s="182"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="159"/>
       <c r="E47" s="63" t="s">
         <v>48</v>
       </c>
@@ -39036,11 +39038,11 @@
       <c r="A48" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="180" t="s">
+      <c r="B48" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="181"/>
-      <c r="D48" s="182"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="159"/>
       <c r="E48" s="63" t="s">
         <v>48</v>
       </c>
@@ -39108,11 +39110,11 @@
       <c r="A49" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="180" t="s">
+      <c r="B49" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="181"/>
-      <c r="D49" s="182"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="159"/>
       <c r="E49" s="63" t="s">
         <v>48</v>
       </c>
@@ -39178,9 +39180,9 @@
     </row>
     <row r="50" spans="1:52" ht="12.75" customHeight="1">
       <c r="A50" s="54"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="154"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="153"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
@@ -39232,9 +39234,9 @@
     </row>
     <row r="51" spans="1:52" ht="12.75" customHeight="1">
       <c r="A51" s="54"/>
-      <c r="B51" s="196"/>
-      <c r="C51" s="196"/>
-      <c r="D51" s="197"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -39286,9 +39288,9 @@
     </row>
     <row r="52" spans="1:52" ht="12.75" customHeight="1">
       <c r="A52" s="54"/>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="197"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
@@ -39340,9 +39342,9 @@
     </row>
     <row r="53" spans="1:52" ht="12.75" customHeight="1">
       <c r="A53" s="54"/>
-      <c r="B53" s="152"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="154"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="153"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
@@ -39394,9 +39396,9 @@
     </row>
     <row r="54" spans="1:52" ht="12.75" customHeight="1">
       <c r="A54" s="54"/>
-      <c r="B54" s="152"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="154"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="153"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -39448,9 +39450,9 @@
     </row>
     <row r="55" spans="1:52" s="39" customFormat="1" ht="12.75" customHeight="1">
       <c r="A55" s="54"/>
-      <c r="B55" s="152"/>
-      <c r="C55" s="153"/>
-      <c r="D55" s="154"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="153"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
@@ -39502,9 +39504,9 @@
     </row>
     <row r="56" spans="1:52" ht="12.75" customHeight="1">
       <c r="A56" s="54"/>
-      <c r="B56" s="152"/>
-      <c r="C56" s="153"/>
-      <c r="D56" s="154"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="153"/>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
@@ -39556,9 +39558,9 @@
     </row>
     <row r="57" spans="1:52" ht="12.75" customHeight="1">
       <c r="A57" s="54"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="154"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="153"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -39610,9 +39612,9 @@
     </row>
     <row r="58" spans="1:52" ht="12.75" customHeight="1">
       <c r="A58" s="54"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="154"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="153"/>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -39657,9 +39659,9 @@
     </row>
     <row r="59" spans="1:52" ht="12.75" customHeight="1">
       <c r="A59" s="54"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="151"/>
+      <c r="B59" s="192"/>
+      <c r="C59" s="193"/>
+      <c r="D59" s="194"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -39704,9 +39706,9 @@
     </row>
     <row r="60" spans="1:52" ht="12.75" customHeight="1">
       <c r="A60" s="54"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="151"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="193"/>
+      <c r="D60" s="194"/>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
@@ -39751,9 +39753,9 @@
     </row>
     <row r="61" spans="1:52" ht="12.75" customHeight="1">
       <c r="A61" s="54"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="151"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="193"/>
+      <c r="D61" s="194"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
@@ -39798,9 +39800,9 @@
     </row>
     <row r="62" spans="1:52" ht="12.75" customHeight="1">
       <c r="A62" s="54"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="151"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="194"/>
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
@@ -39845,9 +39847,9 @@
     </row>
     <row r="63" spans="1:52" ht="12.75" customHeight="1">
       <c r="A63" s="54"/>
-      <c r="B63" s="149"/>
-      <c r="C63" s="150"/>
-      <c r="D63" s="151"/>
+      <c r="B63" s="192"/>
+      <c r="C63" s="193"/>
+      <c r="D63" s="194"/>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -39892,9 +39894,9 @@
     </row>
     <row r="64" spans="1:52" ht="12.75" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="151"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="193"/>
+      <c r="D64" s="194"/>
       <c r="E64" s="27"/>
       <c r="F64" s="54"/>
       <c r="G64" s="27"/>
@@ -39939,9 +39941,9 @@
     </row>
     <row r="65" spans="1:45" ht="12.75" customHeight="1">
       <c r="A65" s="27"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="151"/>
+      <c r="B65" s="192"/>
+      <c r="C65" s="193"/>
+      <c r="D65" s="194"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -39986,9 +39988,9 @@
     </row>
     <row r="66" spans="1:45" ht="12.75" customHeight="1">
       <c r="A66" s="27"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="148"/>
+      <c r="B66" s="195"/>
+      <c r="C66" s="196"/>
+      <c r="D66" s="197"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -40033,9 +40035,9 @@
     </row>
     <row r="67" spans="1:45" ht="12.75" customHeight="1">
       <c r="A67" s="27"/>
-      <c r="B67" s="146"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="148"/>
+      <c r="B67" s="195"/>
+      <c r="C67" s="196"/>
+      <c r="D67" s="197"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -40080,9 +40082,9 @@
     </row>
     <row r="68" spans="1:45" ht="12.75" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="146"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="148"/>
+      <c r="B68" s="195"/>
+      <c r="C68" s="196"/>
+      <c r="D68" s="197"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
@@ -40127,9 +40129,9 @@
     </row>
     <row r="69" spans="1:45" ht="12.75" customHeight="1">
       <c r="A69" s="27"/>
-      <c r="B69" s="146"/>
-      <c r="C69" s="147"/>
-      <c r="D69" s="148"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="196"/>
+      <c r="D69" s="197"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
@@ -40174,9 +40176,9 @@
     </row>
     <row r="70" spans="1:45" ht="12.75" customHeight="1">
       <c r="A70" s="27"/>
-      <c r="B70" s="146"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="148"/>
+      <c r="B70" s="195"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="197"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
@@ -40221,9 +40223,9 @@
     </row>
     <row r="71" spans="1:45" ht="12.75" customHeight="1">
       <c r="A71" s="27"/>
-      <c r="B71" s="146"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="148"/>
+      <c r="B71" s="195"/>
+      <c r="C71" s="196"/>
+      <c r="D71" s="197"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
@@ -40268,9 +40270,9 @@
     </row>
     <row r="72" spans="1:45" ht="12.75" customHeight="1">
       <c r="A72" s="27"/>
-      <c r="B72" s="146"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="148"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="196"/>
+      <c r="D72" s="197"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
@@ -40315,9 +40317,9 @@
     </row>
     <row r="73" spans="1:45" ht="12.75" customHeight="1">
       <c r="A73" s="27"/>
-      <c r="B73" s="146"/>
-      <c r="C73" s="147"/>
-      <c r="D73" s="148"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="196"/>
+      <c r="D73" s="197"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -49181,6 +49183,59 @@
     <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:AS12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="B57:D57"/>
@@ -49197,59 +49252,6 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:AS12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
   </mergeCells>
   <conditionalFormatting sqref="F998:F1003">
     <cfRule type="cellIs" dxfId="78" priority="161" operator="equal">
@@ -49670,7 +49672,7 @@
   </sheetPr>
   <dimension ref="A1:AT999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="AD69" sqref="AD69"/>
     </sheetView>
   </sheetViews>
